--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_23_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_23_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2913324.025036742</v>
+        <v>-2914928.442963073</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>140.8433459061065</v>
+        <v>254.9455259660928</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>237.4845760736198</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>254.1420543748742</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>279.0877300443238</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>284.7244505358285</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>183.1136930274269</v>
+        <v>183.1136930274267</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>17.65528330212887</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>10.7887617489349</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>199.9639427727471</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>221.4526530200252</v>
       </c>
       <c r="X11" t="n">
-        <v>241.9427849810815</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>258.4496229586658</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.74486795247978</v>
+        <v>38.74486795247955</v>
       </c>
       <c r="C12" t="n">
-        <v>44.92018329092818</v>
+        <v>44.92018329092795</v>
       </c>
       <c r="D12" t="n">
-        <v>19.65674986725119</v>
+        <v>19.65674986725097</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>29.85676475801316</v>
       </c>
       <c r="F12" t="n">
-        <v>17.28089669599632</v>
+        <v>17.28089669599609</v>
       </c>
       <c r="G12" t="n">
-        <v>8.062435227577463</v>
+        <v>8.062435227577236</v>
       </c>
       <c r="H12" t="n">
-        <v>78.83866374755995</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>16.16737725307238</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T12" t="n">
-        <v>66.35951750204933</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8431737758271</v>
+        <v>98.0548580784393</v>
       </c>
       <c r="V12" t="n">
-        <v>105.0122714520377</v>
+        <v>105.0122714520375</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>232.7151818676736</v>
       </c>
       <c r="X12" t="n">
-        <v>77.98466950608992</v>
+        <v>77.98466950608969</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.8943800799168</v>
+        <v>77.89438007991657</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.04366448454974</v>
+        <v>52.04366448454951</v>
       </c>
       <c r="C13" t="n">
-        <v>39.45850540124027</v>
+        <v>39.45850540124005</v>
       </c>
       <c r="D13" t="n">
-        <v>20.8271573208248</v>
+        <v>20.82715732082457</v>
       </c>
       <c r="E13" t="n">
-        <v>18.64564694918161</v>
+        <v>18.64564694918138</v>
       </c>
       <c r="F13" t="n">
-        <v>17.63273232554369</v>
+        <v>17.63273232554346</v>
       </c>
       <c r="G13" t="n">
-        <v>38.95117859219402</v>
+        <v>38.95117859219379</v>
       </c>
       <c r="H13" t="n">
-        <v>23.3120168340349</v>
+        <v>23.31201683403467</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.4183107301524</v>
+        <v>74.41831073015217</v>
       </c>
       <c r="T13" t="n">
-        <v>94.81001934569144</v>
+        <v>94.81001934569122</v>
       </c>
       <c r="U13" t="n">
-        <v>158.4624508371646</v>
+        <v>158.4624508371643</v>
       </c>
       <c r="V13" t="n">
-        <v>124.3493276264404</v>
+        <v>124.3493276264402</v>
       </c>
       <c r="W13" t="n">
-        <v>158.7346826392034</v>
+        <v>158.7346826392032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.92133969164959</v>
+        <v>97.92133969164937</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.79633765470723</v>
+        <v>90.796337654707</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.9455259660931</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>174.5414251065487</v>
       </c>
       <c r="E14" t="n">
-        <v>254.1420543748743</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>164.9855499843372</v>
+        <v>279.0877300443237</v>
       </c>
       <c r="G14" t="n">
-        <v>284.7244505358286</v>
+        <v>284.7244505358283</v>
       </c>
       <c r="H14" t="n">
-        <v>183.113693027427</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>17.65528330212893</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>83.0944345801433</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>123.3341395078952</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>199.9639427727471</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>221.4526530200253</v>
       </c>
       <c r="X14" t="n">
-        <v>241.9427849810816</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.74486795247985</v>
+        <v>38.74486795247959</v>
       </c>
       <c r="C15" t="n">
-        <v>44.92018329092825</v>
+        <v>44.92018329092799</v>
       </c>
       <c r="D15" t="n">
-        <v>19.65674986725126</v>
+        <v>19.65674986725101</v>
       </c>
       <c r="E15" t="n">
-        <v>29.85676475801345</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>96.11956044355559</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>8.062435227577534</v>
+        <v>86.90109897513919</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>143.9556929504599</v>
+        <v>16.1673772530722</v>
       </c>
       <c r="T15" t="n">
-        <v>194.1478331994369</v>
+        <v>66.35951750204914</v>
       </c>
       <c r="U15" t="n">
-        <v>98.05485807843959</v>
+        <v>98.05485807843934</v>
       </c>
       <c r="V15" t="n">
-        <v>105.0122714520378</v>
+        <v>105.0122714520375</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>77.98466950608999</v>
+        <v>77.98466950608973</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.89438007991687</v>
+        <v>77.89438007991662</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.04366448454981</v>
+        <v>52.04366448454955</v>
       </c>
       <c r="C16" t="n">
-        <v>39.45850540124034</v>
+        <v>39.45850540124009</v>
       </c>
       <c r="D16" t="n">
-        <v>20.82715732082487</v>
+        <v>20.82715732082461</v>
       </c>
       <c r="E16" t="n">
-        <v>18.64564694918168</v>
+        <v>18.64564694918143</v>
       </c>
       <c r="F16" t="n">
-        <v>17.63273232554376</v>
+        <v>17.6327323255435</v>
       </c>
       <c r="G16" t="n">
-        <v>38.95117859219409</v>
+        <v>38.95117859219383</v>
       </c>
       <c r="H16" t="n">
-        <v>23.31201683403497</v>
+        <v>23.31201683403471</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>74.41831073015247</v>
+        <v>74.41831073015221</v>
       </c>
       <c r="T16" t="n">
-        <v>94.81001934569152</v>
+        <v>94.81001934569126</v>
       </c>
       <c r="U16" t="n">
-        <v>158.4624508371647</v>
+        <v>158.4624508371644</v>
       </c>
       <c r="V16" t="n">
-        <v>124.3493276264405</v>
+        <v>124.3493276264403</v>
       </c>
       <c r="W16" t="n">
-        <v>158.7346826392035</v>
+        <v>158.7346826392032</v>
       </c>
       <c r="X16" t="n">
-        <v>97.92133969164966</v>
+        <v>97.92133969164941</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.7963376547073</v>
+        <v>90.79633765470705</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>139.8053726064066</v>
+        <v>139.8053726064067</v>
       </c>
       <c r="C17" t="n">
-        <v>122.3444227139336</v>
+        <v>122.3444227139337</v>
       </c>
       <c r="D17" t="n">
         <v>111.7545725636091</v>
@@ -1853,13 +1853,13 @@
         <v>139.0019010151879</v>
       </c>
       <c r="F17" t="n">
-        <v>163.9475766846375</v>
+        <v>163.9475766846376</v>
       </c>
       <c r="G17" t="n">
-        <v>169.5842971761421</v>
+        <v>169.5842971761422</v>
       </c>
       <c r="H17" t="n">
-        <v>67.97353966774052</v>
+        <v>67.97353966774058</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.193986148209051</v>
+        <v>8.193986148209108</v>
       </c>
       <c r="V17" t="n">
-        <v>84.82378941306098</v>
+        <v>84.82378941306104</v>
       </c>
       <c r="W17" t="n">
         <v>106.3124996603391</v>
       </c>
       <c r="X17" t="n">
-        <v>126.8026316213951</v>
+        <v>126.8026316213952</v>
       </c>
       <c r="Y17" t="n">
         <v>143.3094695989797</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>151.3822275860551</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1929,19 +1929,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>48.12670030601736</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>8.76651410384568</v>
+        <v>8.766514103845736</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>182.2549990343498</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.7920863791746</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>43.32229747747821</v>
+        <v>43.32229747747827</v>
       </c>
       <c r="V19" t="n">
-        <v>9.209174266754076</v>
+        <v>9.209174266754133</v>
       </c>
       <c r="W19" t="n">
-        <v>43.59452927951708</v>
+        <v>43.59452927951713</v>
       </c>
       <c r="X19" t="n">
-        <v>139.7920863791747</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>139.8053726064066</v>
+        <v>139.8053726064067</v>
       </c>
       <c r="C20" t="n">
-        <v>122.3444227139336</v>
+        <v>122.3444227139329</v>
       </c>
       <c r="D20" t="n">
-        <v>111.754572563609</v>
+        <v>111.7545725636091</v>
       </c>
       <c r="E20" t="n">
         <v>139.0019010151879</v>
       </c>
       <c r="F20" t="n">
-        <v>163.9475766846375</v>
+        <v>163.9475766846376</v>
       </c>
       <c r="G20" t="n">
-        <v>169.5842971761421</v>
+        <v>169.5842971761422</v>
       </c>
       <c r="H20" t="n">
-        <v>67.97353966774051</v>
+        <v>67.97353966774057</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.193986148209051</v>
+        <v>8.193986148209108</v>
       </c>
       <c r="V20" t="n">
-        <v>84.82378941306098</v>
+        <v>84.82378941306104</v>
       </c>
       <c r="W20" t="n">
         <v>106.3124996603391</v>
       </c>
       <c r="X20" t="n">
-        <v>126.8026316213951</v>
+        <v>126.8026316213952</v>
       </c>
       <c r="Y20" t="n">
         <v>143.3094695989797</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>64.31082490015274</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2223,10 +2223,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>190.6786847059234</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.7920863791747</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.7920863791746</v>
       </c>
       <c r="U22" t="n">
-        <v>43.32229747747821</v>
+        <v>43.32229747747827</v>
       </c>
       <c r="V22" t="n">
-        <v>9.209174266754076</v>
+        <v>9.209174266754133</v>
       </c>
       <c r="W22" t="n">
-        <v>43.59452927951708</v>
+        <v>43.59452927951713</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>48.12670030601736</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>56.59073854404881</v>
+        <v>156.6853012412743</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>8.76651410384568</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.7920863791747</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>43.59452927951708</v>
       </c>
       <c r="X25" t="n">
-        <v>139.7920863791747</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>267.5936883037942</v>
+        <v>267.5936883037945</v>
       </c>
       <c r="C26" t="n">
-        <v>250.1327384113212</v>
+        <v>250.1327384113215</v>
       </c>
       <c r="D26" t="n">
-        <v>239.5428882609966</v>
+        <v>239.5428882609969</v>
       </c>
       <c r="E26" t="n">
-        <v>266.7902167125754</v>
+        <v>266.7902167125757</v>
       </c>
       <c r="F26" t="n">
-        <v>291.735892382025</v>
+        <v>291.7358923820253</v>
       </c>
       <c r="G26" t="n">
-        <v>297.3726128735297</v>
+        <v>297.37261287353</v>
       </c>
       <c r="H26" t="n">
-        <v>195.761855365128</v>
+        <v>195.7618553651284</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30344563983027</v>
+        <v>30.30344563983059</v>
       </c>
       <c r="T26" t="n">
-        <v>95.74259691784464</v>
+        <v>95.74259691784496</v>
       </c>
       <c r="U26" t="n">
-        <v>135.9823018455966</v>
+        <v>135.9823018455969</v>
       </c>
       <c r="V26" t="n">
-        <v>212.6121051104485</v>
+        <v>212.6121051104488</v>
       </c>
       <c r="W26" t="n">
-        <v>234.1008153577266</v>
+        <v>234.1008153577269</v>
       </c>
       <c r="X26" t="n">
-        <v>254.5909473187826</v>
+        <v>254.590947318783</v>
       </c>
       <c r="Y26" t="n">
-        <v>271.0977852963672</v>
+        <v>271.0977852963675</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.39303029018093</v>
+        <v>51.39303029018126</v>
       </c>
       <c r="C27" t="n">
-        <v>57.56834562862933</v>
+        <v>125.0655393588609</v>
       </c>
       <c r="D27" t="n">
-        <v>32.30491220495234</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>42.50492709571454</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>29.92905903369747</v>
+        <v>29.9290590336978</v>
       </c>
       <c r="G27" t="n">
-        <v>88.20779129551327</v>
+        <v>20.71059756527894</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>28.81553959077354</v>
+        <v>28.81553959077386</v>
       </c>
       <c r="T27" t="n">
-        <v>79.00767983975048</v>
+        <v>79.00767983975081</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8431737758271</v>
+        <v>110.703020416141</v>
       </c>
       <c r="V27" t="n">
-        <v>117.6604337897389</v>
+        <v>117.6604337897392</v>
       </c>
       <c r="W27" t="n">
-        <v>136.5548298012332</v>
+        <v>136.5548298012335</v>
       </c>
       <c r="X27" t="n">
-        <v>90.63283184379107</v>
+        <v>90.63283184379139</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>90.54254241761828</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.69182682225089</v>
+        <v>64.69182682225122</v>
       </c>
       <c r="C28" t="n">
-        <v>52.10666773894143</v>
+        <v>52.10666773894175</v>
       </c>
       <c r="D28" t="n">
-        <v>33.47531965852595</v>
+        <v>33.47531965852627</v>
       </c>
       <c r="E28" t="n">
-        <v>31.29380928688276</v>
+        <v>31.29380928688309</v>
       </c>
       <c r="F28" t="n">
-        <v>30.28089466324484</v>
+        <v>30.28089466324516</v>
       </c>
       <c r="G28" t="n">
-        <v>51.59934092989517</v>
+        <v>51.5993409298955</v>
       </c>
       <c r="H28" t="n">
-        <v>35.96017917173605</v>
+        <v>35.96017917173638</v>
       </c>
       <c r="I28" t="n">
-        <v>2.674752405338133</v>
+        <v>2.674752405338459</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.881918465969179</v>
+        <v>5.881918465969505</v>
       </c>
       <c r="S28" t="n">
-        <v>87.06647306785355</v>
+        <v>87.06647306785388</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4581816833926</v>
+        <v>107.4581816833929</v>
       </c>
       <c r="U28" t="n">
-        <v>171.1106131748657</v>
+        <v>171.110613174866</v>
       </c>
       <c r="V28" t="n">
-        <v>136.9974899641416</v>
+        <v>136.9974899641419</v>
       </c>
       <c r="W28" t="n">
-        <v>171.3828449769046</v>
+        <v>171.3828449769049</v>
       </c>
       <c r="X28" t="n">
-        <v>110.5695020293507</v>
+        <v>110.5695020293511</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.4444999924084</v>
+        <v>103.4444999924087</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.5936883037941</v>
+        <v>267.5936883037945</v>
       </c>
       <c r="C29" t="n">
-        <v>250.132738411321</v>
+        <v>250.1327384113214</v>
       </c>
       <c r="D29" t="n">
-        <v>239.5428882609964</v>
+        <v>239.5428882609968</v>
       </c>
       <c r="E29" t="n">
-        <v>266.7902167125753</v>
+        <v>266.7902167125757</v>
       </c>
       <c r="F29" t="n">
-        <v>291.7358923820249</v>
+        <v>291.7358923820253</v>
       </c>
       <c r="G29" t="n">
-        <v>297.3726128735296</v>
+        <v>297.37261287353</v>
       </c>
       <c r="H29" t="n">
-        <v>195.7618553651279</v>
+        <v>195.7618553651283</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30344563983018</v>
+        <v>30.30344563983055</v>
       </c>
       <c r="T29" t="n">
-        <v>95.74259691784455</v>
+        <v>95.74259691784492</v>
       </c>
       <c r="U29" t="n">
-        <v>135.9823018455965</v>
+        <v>135.9823018455969</v>
       </c>
       <c r="V29" t="n">
-        <v>212.6121051104484</v>
+        <v>212.6121051104488</v>
       </c>
       <c r="W29" t="n">
-        <v>234.1008153577265</v>
+        <v>234.1008153577269</v>
       </c>
       <c r="X29" t="n">
-        <v>254.5909473187825</v>
+        <v>254.5909473187829</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.0977852963671</v>
+        <v>271.0977852963675</v>
       </c>
     </row>
     <row r="30">
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>51.39303029018122</v>
       </c>
       <c r="C30" t="n">
-        <v>57.56834562862925</v>
+        <v>57.56834562862961</v>
       </c>
       <c r="D30" t="n">
-        <v>32.30491220495226</v>
+        <v>32.30491220495263</v>
       </c>
       <c r="E30" t="n">
-        <v>42.50492709571445</v>
+        <v>42.50492709571482</v>
       </c>
       <c r="F30" t="n">
-        <v>29.92905903369738</v>
+        <v>29.92905903369775</v>
       </c>
       <c r="G30" t="n">
-        <v>20.71059756527853</v>
+        <v>20.7105975652789</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>28.81553959077345</v>
+        <v>28.81553959077382</v>
       </c>
       <c r="T30" t="n">
-        <v>79.00767983975039</v>
+        <v>79.00767983975076</v>
       </c>
       <c r="U30" t="n">
-        <v>110.7030204161406</v>
+        <v>110.703020416141</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>204.0520235314687</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>90.63283184379098</v>
+        <v>158.1300255740233</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.54254241761787</v>
+        <v>90.54254241761824</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.6918268222508</v>
+        <v>64.69182682225117</v>
       </c>
       <c r="C31" t="n">
-        <v>52.10666773894134</v>
+        <v>52.10666773894171</v>
       </c>
       <c r="D31" t="n">
-        <v>33.47531965852586</v>
+        <v>33.47531965852623</v>
       </c>
       <c r="E31" t="n">
-        <v>31.29380928688268</v>
+        <v>31.29380928688305</v>
       </c>
       <c r="F31" t="n">
-        <v>30.28089466324475</v>
+        <v>30.28089466324512</v>
       </c>
       <c r="G31" t="n">
-        <v>51.59934092989509</v>
+        <v>51.59934092989545</v>
       </c>
       <c r="H31" t="n">
-        <v>35.96017917173597</v>
+        <v>35.96017917173634</v>
       </c>
       <c r="I31" t="n">
-        <v>2.674752405338047</v>
+        <v>2.674752405338417</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.881918465969093</v>
+        <v>5.881918465969463</v>
       </c>
       <c r="S31" t="n">
-        <v>87.06647306785347</v>
+        <v>87.06647306785383</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4581816833925</v>
+        <v>107.4581816833929</v>
       </c>
       <c r="U31" t="n">
-        <v>171.1106131748656</v>
+        <v>171.110613174866</v>
       </c>
       <c r="V31" t="n">
-        <v>136.9974899641415</v>
+        <v>136.9974899641419</v>
       </c>
       <c r="W31" t="n">
-        <v>171.3828449769045</v>
+        <v>171.3828449769049</v>
       </c>
       <c r="X31" t="n">
-        <v>110.5695020293507</v>
+        <v>110.569502029351</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.4444999924083</v>
+        <v>103.4444999924087</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>267.5936883037942</v>
+        <v>267.5936883037945</v>
       </c>
       <c r="C32" t="n">
-        <v>250.1327384113212</v>
+        <v>250.1327384113215</v>
       </c>
       <c r="D32" t="n">
-        <v>239.5428882609966</v>
+        <v>239.5428882609969</v>
       </c>
       <c r="E32" t="n">
-        <v>266.7902167125754</v>
+        <v>266.7902167125757</v>
       </c>
       <c r="F32" t="n">
-        <v>291.735892382025</v>
+        <v>291.7358923820254</v>
       </c>
       <c r="G32" t="n">
-        <v>297.3726128735297</v>
+        <v>297.37261287353</v>
       </c>
       <c r="H32" t="n">
-        <v>195.761855365128</v>
+        <v>195.7618553651284</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30344563983026</v>
+        <v>30.30344563983061</v>
       </c>
       <c r="T32" t="n">
-        <v>95.74259691784464</v>
+        <v>95.74259691784499</v>
       </c>
       <c r="U32" t="n">
-        <v>135.9823018455966</v>
+        <v>135.9823018455969</v>
       </c>
       <c r="V32" t="n">
-        <v>212.6121051104485</v>
+        <v>212.6121051104489</v>
       </c>
       <c r="W32" t="n">
-        <v>234.1008153577266</v>
+        <v>234.100815357727</v>
       </c>
       <c r="X32" t="n">
-        <v>254.5909473187826</v>
+        <v>254.590947318783</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.0977852963672</v>
+        <v>271.0977852963675</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>51.39303029018129</v>
       </c>
       <c r="C33" t="n">
-        <v>57.56834562862933</v>
+        <v>57.56834562862969</v>
       </c>
       <c r="D33" t="n">
-        <v>32.30491220495234</v>
+        <v>32.3049122049527</v>
       </c>
       <c r="E33" t="n">
-        <v>110.0021208259491</v>
+        <v>110.0021208259459</v>
       </c>
       <c r="F33" t="n">
-        <v>29.92905903369747</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>20.71059756527861</v>
+        <v>20.71059756527897</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>28.81553959077354</v>
+        <v>28.81553959077389</v>
       </c>
       <c r="T33" t="n">
-        <v>194.1478331994369</v>
+        <v>79.00767983975084</v>
       </c>
       <c r="U33" t="n">
-        <v>110.7030204161407</v>
+        <v>110.703020416141</v>
       </c>
       <c r="V33" t="n">
-        <v>117.6604337897389</v>
+        <v>117.6604337897392</v>
       </c>
       <c r="W33" t="n">
-        <v>136.5548298012332</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>90.63283184379107</v>
+        <v>90.63283184379142</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.54254241761795</v>
+        <v>90.54254241761831</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.69182682225089</v>
+        <v>64.69182682225124</v>
       </c>
       <c r="C34" t="n">
-        <v>52.10666773894143</v>
+        <v>52.10666773894178</v>
       </c>
       <c r="D34" t="n">
-        <v>33.47531965852595</v>
+        <v>33.4753196585263</v>
       </c>
       <c r="E34" t="n">
-        <v>31.29380928688276</v>
+        <v>31.29380928688312</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28089466324484</v>
+        <v>30.28089466324519</v>
       </c>
       <c r="G34" t="n">
-        <v>51.59934092989517</v>
+        <v>51.59934092989553</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96017917173605</v>
+        <v>35.96017917173641</v>
       </c>
       <c r="I34" t="n">
-        <v>2.674752405338133</v>
+        <v>2.674752405338488</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.881918465969179</v>
+        <v>5.881918465969534</v>
       </c>
       <c r="S34" t="n">
-        <v>87.06647306785355</v>
+        <v>87.06647306785391</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4581816833926</v>
+        <v>107.458181683393</v>
       </c>
       <c r="U34" t="n">
-        <v>171.1106131748657</v>
+        <v>171.1106131748661</v>
       </c>
       <c r="V34" t="n">
-        <v>136.9974899641416</v>
+        <v>136.9974899641419</v>
       </c>
       <c r="W34" t="n">
-        <v>171.3828449769046</v>
+        <v>171.3828449769049</v>
       </c>
       <c r="X34" t="n">
-        <v>110.5695020293507</v>
+        <v>110.5695020293511</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.4444999924084</v>
+        <v>103.4444999924087</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.7763536111303</v>
+        <v>162.7763536111308</v>
       </c>
       <c r="C35" t="n">
-        <v>145.3154037186573</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D35" t="n">
-        <v>134.7255535683327</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E35" t="n">
-        <v>161.9728820199115</v>
+        <v>161.972882019912</v>
       </c>
       <c r="F35" t="n">
-        <v>186.9185576893611</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G35" t="n">
-        <v>192.5552781808658</v>
+        <v>192.5552781808663</v>
       </c>
       <c r="H35" t="n">
-        <v>90.94452067246414</v>
+        <v>90.94452067246462</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.16496715293269</v>
+        <v>31.16496715293317</v>
       </c>
       <c r="V35" t="n">
-        <v>107.7947704177846</v>
+        <v>107.7947704177851</v>
       </c>
       <c r="W35" t="n">
-        <v>129.2834806650627</v>
+        <v>129.2834806650632</v>
       </c>
       <c r="X35" t="n">
-        <v>149.7736126261187</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.2804506037033</v>
+        <v>166.2804506037038</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>4.461869077078303</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>5.885685723476781</v>
+        <v>5.885685723477264</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>177.8272174637447</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>62.48612903758836</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.640846990728701</v>
+        <v>2.640846990729184</v>
       </c>
       <c r="U37" t="n">
-        <v>66.29327848220183</v>
+        <v>66.29327848220231</v>
       </c>
       <c r="V37" t="n">
-        <v>32.1801552714777</v>
+        <v>32.18015527147818</v>
       </c>
       <c r="W37" t="n">
-        <v>66.5655102842407</v>
+        <v>66.56551028424118</v>
       </c>
       <c r="X37" t="n">
-        <v>5.752167336686853</v>
+        <v>5.752167336687336</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>62.48612903758593</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.7763536111301</v>
+        <v>162.7763536111307</v>
       </c>
       <c r="C38" t="n">
-        <v>145.3154037186571</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D38" t="n">
-        <v>134.7255535683325</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E38" t="n">
-        <v>161.9728820199113</v>
+        <v>161.9728820199119</v>
       </c>
       <c r="F38" t="n">
-        <v>186.918557689361</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G38" t="n">
-        <v>192.5552781808656</v>
+        <v>192.5552781808662</v>
       </c>
       <c r="H38" t="n">
-        <v>90.94452067246399</v>
+        <v>90.94452067246456</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.16496715293254</v>
+        <v>31.16496715293312</v>
       </c>
       <c r="V38" t="n">
-        <v>107.7947704177845</v>
+        <v>107.794770417785</v>
       </c>
       <c r="W38" t="n">
-        <v>129.2834806650626</v>
+        <v>129.2834806650631</v>
       </c>
       <c r="X38" t="n">
-        <v>149.7736126261186</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.2804506037031</v>
+        <v>166.2804506037037</v>
       </c>
     </row>
     <row r="39">
@@ -3582,19 +3582,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>55.23653320855588</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723477208</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>12.8430990970754</v>
       </c>
       <c r="W39" t="n">
-        <v>31.73749510856916</v>
+        <v>31.73749510856973</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>140.5552332090731</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>65.12697602831756</v>
+        <v>2.640846990729127</v>
       </c>
       <c r="U40" t="n">
-        <v>66.29327848220169</v>
+        <v>128.7794075197885</v>
       </c>
       <c r="V40" t="n">
-        <v>32.18015527147756</v>
+        <v>32.18015527147813</v>
       </c>
       <c r="W40" t="n">
-        <v>66.56551028424056</v>
+        <v>66.56551028424113</v>
       </c>
       <c r="X40" t="n">
-        <v>5.752167336686711</v>
+        <v>5.752167336687279</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.7763536111301</v>
+        <v>162.7763536111308</v>
       </c>
       <c r="C41" t="n">
-        <v>145.3154037186571</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D41" t="n">
-        <v>134.7255535683325</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E41" t="n">
-        <v>161.9728820199113</v>
+        <v>161.972882019912</v>
       </c>
       <c r="F41" t="n">
-        <v>186.918557689361</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G41" t="n">
-        <v>192.5552781808656</v>
+        <v>192.5552781808663</v>
       </c>
       <c r="H41" t="n">
-        <v>90.94452067246399</v>
+        <v>90.94452067246462</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.16496715293254</v>
+        <v>31.16496715293316</v>
       </c>
       <c r="V41" t="n">
-        <v>107.7947704177845</v>
+        <v>107.7947704177851</v>
       </c>
       <c r="W41" t="n">
-        <v>129.2834806650626</v>
+        <v>129.2834806650632</v>
       </c>
       <c r="X41" t="n">
-        <v>149.7736126261186</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.2804506037031</v>
+        <v>166.2804506037038</v>
       </c>
     </row>
     <row r="42">
@@ -3819,25 +3819,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>48.12670030601736</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>5.885685723476639</v>
+        <v>5.885685723477264</v>
       </c>
       <c r="V42" t="n">
-        <v>12.84309909707483</v>
+        <v>12.84309909707545</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>31.73749510856979</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>140.5552332090731</v>
       </c>
       <c r="Y42" t="n">
-        <v>148.755728660035</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>62.48612903758593</v>
       </c>
       <c r="T43" t="n">
-        <v>65.12697602831761</v>
+        <v>2.640846990729184</v>
       </c>
       <c r="U43" t="n">
-        <v>66.29327848220169</v>
+        <v>66.29327848220231</v>
       </c>
       <c r="V43" t="n">
-        <v>32.18015527147756</v>
+        <v>32.18015527147818</v>
       </c>
       <c r="W43" t="n">
-        <v>66.56551028424056</v>
+        <v>66.56551028424118</v>
       </c>
       <c r="X43" t="n">
-        <v>5.752167336686711</v>
+        <v>5.752167336687336</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.7763536111301</v>
+        <v>162.7763536111308</v>
       </c>
       <c r="C44" t="n">
-        <v>145.3154037186571</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D44" t="n">
-        <v>134.7255535683325</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E44" t="n">
-        <v>161.9728820199113</v>
+        <v>161.972882019912</v>
       </c>
       <c r="F44" t="n">
-        <v>186.918557689361</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G44" t="n">
-        <v>192.5552781808656</v>
+        <v>192.5552781808663</v>
       </c>
       <c r="H44" t="n">
-        <v>90.94452067246399</v>
+        <v>90.94452067246462</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.16496715293254</v>
+        <v>31.16496715293316</v>
       </c>
       <c r="V44" t="n">
-        <v>107.7947704177845</v>
+        <v>107.7947704177851</v>
       </c>
       <c r="W44" t="n">
-        <v>129.2834806650626</v>
+        <v>129.2834806650632</v>
       </c>
       <c r="X44" t="n">
-        <v>149.7736126261186</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.2804506037031</v>
+        <v>166.2804506037038</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723477264</v>
       </c>
       <c r="V45" t="n">
-        <v>12.84309909707483</v>
+        <v>12.84309909707545</v>
       </c>
       <c r="W45" t="n">
-        <v>168.4047350128182</v>
+        <v>111.5889555075492</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.640846990728559</v>
+        <v>2.640846990729184</v>
       </c>
       <c r="U46" t="n">
-        <v>66.29327848220169</v>
+        <v>128.7794075197882</v>
       </c>
       <c r="V46" t="n">
-        <v>32.18015527147756</v>
+        <v>32.18015527147818</v>
       </c>
       <c r="W46" t="n">
-        <v>66.56551028424056</v>
+        <v>66.56551028424118</v>
       </c>
       <c r="X46" t="n">
-        <v>5.752167336686711</v>
+        <v>5.752167336687336</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.48612903758905</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1039.706916718406</v>
+        <v>453.3739279493077</v>
       </c>
       <c r="C11" t="n">
-        <v>1039.706916718406</v>
+        <v>213.4905177739341</v>
       </c>
       <c r="D11" t="n">
-        <v>1039.706916718406</v>
+        <v>213.4905177739341</v>
       </c>
       <c r="E11" t="n">
-        <v>782.9977708851993</v>
+        <v>213.4905177739341</v>
       </c>
       <c r="F11" t="n">
-        <v>501.0909728606297</v>
+        <v>213.4905177739341</v>
       </c>
       <c r="G11" t="n">
-        <v>213.4905177739342</v>
+        <v>213.4905177739341</v>
       </c>
       <c r="H11" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I11" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J11" t="n">
-        <v>83.71911784006852</v>
+        <v>83.71911784006784</v>
       </c>
       <c r="K11" t="n">
-        <v>217.1760266634147</v>
+        <v>217.176026663414</v>
       </c>
       <c r="L11" t="n">
-        <v>419.6428849838418</v>
+        <v>419.642884983841</v>
       </c>
       <c r="M11" t="n">
-        <v>676.595713496534</v>
+        <v>676.5957134965338</v>
       </c>
       <c r="N11" t="n">
-        <v>942.3201157893066</v>
+        <v>942.3201157893063</v>
       </c>
       <c r="O11" t="n">
         <v>1179.900872569998</v>
@@ -5066,25 +5066,25 @@
         <v>1426.359574180211</v>
       </c>
       <c r="S11" t="n">
-        <v>1426.359574180211</v>
+        <v>1408.525954683111</v>
       </c>
       <c r="T11" t="n">
-        <v>1426.359574180211</v>
+        <v>1397.628215542773</v>
       </c>
       <c r="U11" t="n">
-        <v>1426.359574180211</v>
+        <v>1397.628215542773</v>
       </c>
       <c r="V11" t="n">
-        <v>1426.359574180211</v>
+        <v>1195.644434964241</v>
       </c>
       <c r="W11" t="n">
-        <v>1426.359574180211</v>
+        <v>971.9548864591648</v>
       </c>
       <c r="X11" t="n">
-        <v>1181.97292268417</v>
+        <v>971.9548864591648</v>
       </c>
       <c r="Y11" t="n">
-        <v>1181.97292268417</v>
+        <v>710.8946612483913</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>358.2282109631134</v>
+        <v>248.3206206559012</v>
       </c>
       <c r="C12" t="n">
-        <v>312.8542884470243</v>
+        <v>202.9466981398123</v>
       </c>
       <c r="D12" t="n">
-        <v>292.998985550811</v>
+        <v>183.0913952435992</v>
       </c>
       <c r="E12" t="n">
-        <v>133.7615305453555</v>
+        <v>152.9330470031819</v>
       </c>
       <c r="F12" t="n">
-        <v>116.3060793372784</v>
+        <v>135.4775957951051</v>
       </c>
       <c r="G12" t="n">
-        <v>108.1622053700284</v>
+        <v>127.3337218278553</v>
       </c>
       <c r="H12" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I12" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J12" t="n">
-        <v>42.58127776197355</v>
+        <v>42.58127776197358</v>
       </c>
       <c r="K12" t="n">
-        <v>144.7567744385588</v>
+        <v>144.7567744385589</v>
       </c>
       <c r="L12" t="n">
-        <v>328.4668801148406</v>
+        <v>328.4668801148408</v>
       </c>
       <c r="M12" t="n">
-        <v>562.204776565439</v>
+        <v>562.2047765654393</v>
       </c>
       <c r="N12" t="n">
-        <v>816.5376645420145</v>
+        <v>816.5376645420147</v>
       </c>
       <c r="O12" t="n">
-        <v>1026.982773879069</v>
+        <v>1026.98277387907</v>
       </c>
       <c r="P12" t="n">
-        <v>1176.550461047347</v>
+        <v>1176.550461047348</v>
       </c>
       <c r="Q12" t="n">
         <v>1226.61330256149</v>
@@ -5145,25 +5145,25 @@
         <v>1226.61330256149</v>
       </c>
       <c r="S12" t="n">
-        <v>1210.282618467477</v>
+        <v>1081.20351170244</v>
       </c>
       <c r="T12" t="n">
-        <v>1143.252802808842</v>
+        <v>885.0945892787661</v>
       </c>
       <c r="U12" t="n">
-        <v>915.1283848534607</v>
+        <v>786.0492780884233</v>
       </c>
       <c r="V12" t="n">
-        <v>809.0553833867559</v>
+        <v>679.9762766217187</v>
       </c>
       <c r="W12" t="n">
-        <v>554.8180266585543</v>
+        <v>444.9104363513413</v>
       </c>
       <c r="X12" t="n">
-        <v>476.0456332180595</v>
+        <v>366.1380429108467</v>
       </c>
       <c r="Y12" t="n">
-        <v>397.3644412181435</v>
+        <v>287.456850910931</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.958744436149</v>
+        <v>188.9587444361476</v>
       </c>
       <c r="C13" t="n">
-        <v>149.10166827328</v>
+        <v>149.1016682732788</v>
       </c>
       <c r="D13" t="n">
-        <v>128.0641356259822</v>
+        <v>128.0641356259813</v>
       </c>
       <c r="E13" t="n">
-        <v>109.2301488086271</v>
+        <v>109.2301488086264</v>
       </c>
       <c r="F13" t="n">
-        <v>91.41930807575466</v>
+        <v>91.41930807575419</v>
       </c>
       <c r="G13" t="n">
-        <v>52.07468323515464</v>
+        <v>52.0746832351544</v>
       </c>
       <c r="H13" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I13" t="n">
-        <v>38.40086731664362</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J13" t="n">
-        <v>38.40086731664362</v>
+        <v>116.9073512249364</v>
       </c>
       <c r="K13" t="n">
-        <v>181.1339868904805</v>
+        <v>259.6404707987735</v>
       </c>
       <c r="L13" t="n">
-        <v>358.3096712602248</v>
+        <v>436.8161551685181</v>
       </c>
       <c r="M13" t="n">
-        <v>541.4977910763523</v>
+        <v>620.0042749846459</v>
       </c>
       <c r="N13" t="n">
-        <v>731.1957680758713</v>
+        <v>809.7022519841653</v>
       </c>
       <c r="O13" t="n">
-        <v>895.7570362070823</v>
+        <v>847.7530875749625</v>
       </c>
       <c r="P13" t="n">
-        <v>1035.764560945918</v>
+        <v>987.7606123137982</v>
       </c>
       <c r="Q13" t="n">
-        <v>1049.096252526612</v>
+        <v>1049.096252526609</v>
       </c>
       <c r="R13" t="n">
-        <v>1049.096252526612</v>
+        <v>1049.096252526609</v>
       </c>
       <c r="S13" t="n">
-        <v>973.9262416880748</v>
+        <v>973.9262416880717</v>
       </c>
       <c r="T13" t="n">
-        <v>878.1585453792956</v>
+        <v>878.1585453792927</v>
       </c>
       <c r="U13" t="n">
-        <v>718.095463725594</v>
+        <v>718.0954637255913</v>
       </c>
       <c r="V13" t="n">
-        <v>592.490082284745</v>
+        <v>592.4900822847427</v>
       </c>
       <c r="W13" t="n">
-        <v>432.1520190128223</v>
+        <v>432.1520190128202</v>
       </c>
       <c r="X13" t="n">
-        <v>333.2415748798429</v>
+        <v>333.241574879841</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.5281025013507</v>
+        <v>241.5281025013491</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>924.4521893850857</v>
+        <v>774.3389143994636</v>
       </c>
       <c r="C14" t="n">
-        <v>924.4521893850857</v>
+        <v>774.3389143994636</v>
       </c>
       <c r="D14" t="n">
-        <v>924.4521893850857</v>
+        <v>598.034444594869</v>
       </c>
       <c r="E14" t="n">
-        <v>667.7430435518794</v>
+        <v>598.034444594869</v>
       </c>
       <c r="F14" t="n">
-        <v>501.0909728606301</v>
+        <v>316.1276465702996</v>
       </c>
       <c r="G14" t="n">
-        <v>213.4905177739345</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H14" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I14" t="n">
         <v>28.52719148360423</v>
@@ -5300,28 +5300,28 @@
         <v>1426.359574180211</v>
       </c>
       <c r="R14" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S14" t="n">
-        <v>1426.359574180212</v>
+        <v>1408.525954683111</v>
       </c>
       <c r="T14" t="n">
-        <v>1426.359574180212</v>
+        <v>1324.592182379936</v>
       </c>
       <c r="U14" t="n">
-        <v>1426.359574180212</v>
+        <v>1200.012243483072</v>
       </c>
       <c r="V14" t="n">
-        <v>1426.359574180212</v>
+        <v>998.0284629045399</v>
       </c>
       <c r="W14" t="n">
-        <v>1426.359574180212</v>
+        <v>774.3389143994636</v>
       </c>
       <c r="X14" t="n">
-        <v>1181.97292268417</v>
+        <v>774.3389143994636</v>
       </c>
       <c r="Y14" t="n">
-        <v>1181.97292268417</v>
+        <v>774.3389143994636</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>229.1491041980751</v>
+        <v>487.3073177281527</v>
       </c>
       <c r="C15" t="n">
-        <v>183.7751816819859</v>
+        <v>441.9333952120638</v>
       </c>
       <c r="D15" t="n">
-        <v>163.9198787857725</v>
+        <v>422.0780923158507</v>
       </c>
       <c r="E15" t="n">
-        <v>133.7615305453549</v>
+        <v>262.8406373103952</v>
       </c>
       <c r="F15" t="n">
-        <v>36.67106545085427</v>
+        <v>116.3060793372802</v>
       </c>
       <c r="G15" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H15" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I15" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J15" t="n">
-        <v>42.58127776197356</v>
+        <v>42.58127776197355</v>
       </c>
       <c r="K15" t="n">
         <v>144.7567744385588</v>
       </c>
       <c r="L15" t="n">
-        <v>328.4668801148407</v>
+        <v>328.4668801148406</v>
       </c>
       <c r="M15" t="n">
         <v>562.204776565439</v>
@@ -5382,25 +5382,25 @@
         <v>1226.61330256149</v>
       </c>
       <c r="S15" t="n">
-        <v>1081.203511702439</v>
+        <v>1210.282618467478</v>
       </c>
       <c r="T15" t="n">
-        <v>885.0945892787656</v>
+        <v>1143.252802808842</v>
       </c>
       <c r="U15" t="n">
-        <v>786.0492780884226</v>
+        <v>1044.207491618499</v>
       </c>
       <c r="V15" t="n">
-        <v>679.9762766217178</v>
+        <v>938.1344901517947</v>
       </c>
       <c r="W15" t="n">
-        <v>425.7389198935162</v>
+        <v>683.897133423593</v>
       </c>
       <c r="X15" t="n">
-        <v>346.9665264530213</v>
+        <v>605.1247399830984</v>
       </c>
       <c r="Y15" t="n">
-        <v>268.2853344531052</v>
+        <v>526.4435479831826</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.9587444361494</v>
+        <v>188.9587444361478</v>
       </c>
       <c r="C16" t="n">
-        <v>149.1016682732804</v>
+        <v>149.101668273279</v>
       </c>
       <c r="D16" t="n">
-        <v>128.0641356259825</v>
+        <v>128.0641356259815</v>
       </c>
       <c r="E16" t="n">
-        <v>109.2301488086273</v>
+        <v>109.2301488086265</v>
       </c>
       <c r="F16" t="n">
-        <v>91.4193080757548</v>
+        <v>91.41930807575427</v>
       </c>
       <c r="G16" t="n">
-        <v>52.07468323515471</v>
+        <v>52.07468323515444</v>
       </c>
       <c r="H16" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I16" t="n">
-        <v>38.40086731664356</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J16" t="n">
-        <v>126.7810270579755</v>
+        <v>116.9073512249364</v>
       </c>
       <c r="K16" t="n">
-        <v>269.5141466318122</v>
+        <v>259.6404707987733</v>
       </c>
       <c r="L16" t="n">
-        <v>411.1858722962083</v>
+        <v>417.8844537292182</v>
       </c>
       <c r="M16" t="n">
-        <v>594.3739921123358</v>
+        <v>474.5621410049321</v>
       </c>
       <c r="N16" t="n">
-        <v>784.0719691118549</v>
+        <v>664.2601180044513</v>
       </c>
       <c r="O16" t="n">
-        <v>822.122804702652</v>
+        <v>828.8213861356624</v>
       </c>
       <c r="P16" t="n">
-        <v>962.1303294414874</v>
+        <v>968.828910874498</v>
       </c>
       <c r="Q16" t="n">
-        <v>1042.397671093599</v>
+        <v>1049.09625252661</v>
       </c>
       <c r="R16" t="n">
-        <v>1049.096252526614</v>
+        <v>1049.09625252661</v>
       </c>
       <c r="S16" t="n">
-        <v>973.9262416880758</v>
+        <v>973.9262416880722</v>
       </c>
       <c r="T16" t="n">
-        <v>878.1585453792965</v>
+        <v>878.1585453792932</v>
       </c>
       <c r="U16" t="n">
-        <v>718.0954637255948</v>
+        <v>718.0954637255918</v>
       </c>
       <c r="V16" t="n">
-        <v>592.4900822847458</v>
+        <v>592.490082284743</v>
       </c>
       <c r="W16" t="n">
-        <v>432.152019012823</v>
+        <v>432.1520190128206</v>
       </c>
       <c r="X16" t="n">
-        <v>333.2415748798435</v>
+        <v>333.2415748798414</v>
       </c>
       <c r="Y16" t="n">
-        <v>241.5281025013512</v>
+        <v>241.5281025013494</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>810.9578074646654</v>
+        <v>810.9578074646649</v>
       </c>
       <c r="C17" t="n">
-        <v>687.3775825010963</v>
+        <v>687.3775825010955</v>
       </c>
       <c r="D17" t="n">
-        <v>574.4941758711881</v>
+        <v>574.4941758711873</v>
       </c>
       <c r="E17" t="n">
-        <v>434.0882152497862</v>
+        <v>434.0882152497853</v>
       </c>
       <c r="F17" t="n">
-        <v>268.4846024370211</v>
+        <v>268.48460243702</v>
       </c>
       <c r="G17" t="n">
-        <v>97.18733256213002</v>
+        <v>97.18733256213007</v>
       </c>
       <c r="H17" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I17" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J17" t="n">
-        <v>83.71911784006852</v>
+        <v>83.71911784006772</v>
       </c>
       <c r="K17" t="n">
-        <v>217.1760266634142</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L17" t="n">
-        <v>419.6428849838413</v>
+        <v>419.642884983841</v>
       </c>
       <c r="M17" t="n">
-        <v>676.5957134965339</v>
+        <v>676.5957134965336</v>
       </c>
       <c r="N17" t="n">
-        <v>942.3201157893064</v>
+        <v>942.3201157893059</v>
       </c>
       <c r="O17" t="n">
         <v>1179.900872569998</v>
@@ -5534,16 +5534,16 @@
         <v>1348.169550998292</v>
       </c>
       <c r="Q17" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R17" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S17" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="T17" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="U17" t="n">
         <v>1418.082820495152</v>
@@ -5558,7 +5558,7 @@
         <v>1096.932395550914</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.1753555519446</v>
+        <v>952.1753555519444</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>684.2849977233221</v>
+        <v>657.686643404553</v>
       </c>
       <c r="C18" t="n">
-        <v>509.8319684421951</v>
+        <v>483.233614123426</v>
       </c>
       <c r="D18" t="n">
-        <v>360.8975587809439</v>
+        <v>334.2992044621748</v>
       </c>
       <c r="E18" t="n">
-        <v>360.8975587809439</v>
+        <v>175.0617494567192</v>
       </c>
       <c r="F18" t="n">
-        <v>214.3630008078289</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G18" t="n">
-        <v>77.14002007554096</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H18" t="n">
-        <v>77.14002007554096</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I18" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J18" t="n">
-        <v>42.58127776197356</v>
+        <v>42.58127776197355</v>
       </c>
       <c r="K18" t="n">
         <v>144.7567744385588</v>
       </c>
       <c r="L18" t="n">
-        <v>328.4668801148407</v>
+        <v>328.4668801148406</v>
       </c>
       <c r="M18" t="n">
         <v>562.204776565439</v>
@@ -5619,25 +5619,25 @@
         <v>1226.61330256149</v>
       </c>
       <c r="S18" t="n">
-        <v>1081.203511702439</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="T18" t="n">
-        <v>1081.203511702439</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="U18" t="n">
-        <v>1081.203511702439</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="V18" t="n">
-        <v>846.0514034706966</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="W18" t="n">
-        <v>837.1963387193374</v>
+        <v>1217.75823781013</v>
       </c>
       <c r="X18" t="n">
-        <v>837.1963387193374</v>
+        <v>1033.662279189575</v>
       </c>
       <c r="Y18" t="n">
-        <v>837.1963387193374</v>
+        <v>825.9019804246211</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="C19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="D19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="E19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="F19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K19" t="n">
-        <v>44.74987851702737</v>
+        <v>44.74987851702735</v>
       </c>
       <c r="L19" t="n">
-        <v>95.41513034635807</v>
+        <v>95.41513034635805</v>
       </c>
       <c r="M19" t="n">
         <v>152.0928176220719</v>
@@ -5698,25 +5698,25 @@
         <v>266.8282898703962</v>
       </c>
       <c r="S19" t="n">
-        <v>266.8282898703962</v>
+        <v>125.6241622146644</v>
       </c>
       <c r="T19" t="n">
-        <v>266.8282898703962</v>
+        <v>125.6241622146644</v>
       </c>
       <c r="U19" t="n">
-        <v>223.0683934284991</v>
+        <v>81.86426577276713</v>
       </c>
       <c r="V19" t="n">
-        <v>213.7661971994546</v>
+        <v>72.56206954372254</v>
       </c>
       <c r="W19" t="n">
-        <v>169.7313191393363</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="X19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>810.9578074646656</v>
+        <v>810.9578074646652</v>
       </c>
       <c r="C20" t="n">
-        <v>687.3775825010964</v>
+        <v>687.3775825010965</v>
       </c>
       <c r="D20" t="n">
         <v>574.4941758711883</v>
       </c>
       <c r="E20" t="n">
-        <v>434.0882152497865</v>
+        <v>434.0882152497863</v>
       </c>
       <c r="F20" t="n">
-        <v>268.4846024370213</v>
+        <v>268.4846024370211</v>
       </c>
       <c r="G20" t="n">
-        <v>97.18733256213</v>
+        <v>97.18733256213005</v>
       </c>
       <c r="H20" t="n">
         <v>28.52719148360423</v>
       </c>
       <c r="I20" t="n">
-        <v>28.52719148360468</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J20" t="n">
-        <v>83.71911784006824</v>
+        <v>83.71911784006778</v>
       </c>
       <c r="K20" t="n">
-        <v>217.1760266634144</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L20" t="n">
-        <v>419.6428849838415</v>
+        <v>419.6428849838412</v>
       </c>
       <c r="M20" t="n">
-        <v>676.5957134965342</v>
+        <v>676.595713496534</v>
       </c>
       <c r="N20" t="n">
-        <v>942.3201157893068</v>
+        <v>942.3201157893066</v>
       </c>
       <c r="O20" t="n">
         <v>1179.900872569998</v>
@@ -5771,22 +5771,22 @@
         <v>1348.169550998292</v>
       </c>
       <c r="Q20" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R20" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S20" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="T20" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="U20" t="n">
         <v>1418.082820495152</v>
       </c>
       <c r="V20" t="n">
-        <v>1332.402225128424</v>
+        <v>1332.402225128423</v>
       </c>
       <c r="W20" t="n">
         <v>1225.015861835152</v>
@@ -5795,7 +5795,7 @@
         <v>1096.932395550914</v>
       </c>
       <c r="Y20" t="n">
-        <v>952.175355551945</v>
+        <v>952.1753555519447</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>177.4616011448555</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="C21" t="n">
-        <v>177.4616011448555</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="D21" t="n">
         <v>28.52719148360423</v>
@@ -5829,13 +5829,13 @@
         <v>28.52719148360423</v>
       </c>
       <c r="J21" t="n">
-        <v>42.58127776197356</v>
+        <v>42.58127776197355</v>
       </c>
       <c r="K21" t="n">
         <v>144.7567744385588</v>
       </c>
       <c r="L21" t="n">
-        <v>328.4668801148407</v>
+        <v>328.4668801148406</v>
       </c>
       <c r="M21" t="n">
         <v>562.204776565439</v>
@@ -5853,28 +5853,28 @@
         <v>1226.61330256149</v>
       </c>
       <c r="R21" t="n">
-        <v>1173.080926010103</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="S21" t="n">
-        <v>1027.671135151053</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="T21" t="n">
-        <v>1027.671135151053</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="U21" t="n">
-        <v>1027.671135151053</v>
+        <v>998.4888846061089</v>
       </c>
       <c r="V21" t="n">
-        <v>792.5190269193104</v>
+        <v>763.3367763743661</v>
       </c>
       <c r="W21" t="n">
-        <v>538.2816701911088</v>
+        <v>509.0994196461644</v>
       </c>
       <c r="X21" t="n">
-        <v>345.6769381649235</v>
+        <v>301.2479194406316</v>
       </c>
       <c r="Y21" t="n">
-        <v>345.6769381649235</v>
+        <v>93.4876206756777</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.7313191393363</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="C22" t="n">
-        <v>169.7313191393363</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="D22" t="n">
-        <v>169.7313191393363</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="E22" t="n">
-        <v>169.7313191393363</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="F22" t="n">
-        <v>169.7313191393363</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="G22" t="n">
         <v>28.52719148360423</v>
@@ -5938,22 +5938,22 @@
         <v>266.8282898703962</v>
       </c>
       <c r="T22" t="n">
-        <v>266.8282898703962</v>
+        <v>125.6241622146644</v>
       </c>
       <c r="U22" t="n">
-        <v>223.0683934284991</v>
+        <v>81.86426577276713</v>
       </c>
       <c r="V22" t="n">
-        <v>213.7661971994546</v>
+        <v>72.56206954372254</v>
       </c>
       <c r="W22" t="n">
-        <v>169.7313191393363</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="X22" t="n">
-        <v>169.7313191393363</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="Y22" t="n">
-        <v>169.7313191393363</v>
+        <v>28.52719148360423</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>810.9578074646648</v>
+        <v>810.9578074646646</v>
       </c>
       <c r="C23" t="n">
-        <v>687.3775825010954</v>
+        <v>687.3775825010952</v>
       </c>
       <c r="D23" t="n">
-        <v>574.4941758711873</v>
+        <v>574.4941758711871</v>
       </c>
       <c r="E23" t="n">
-        <v>434.0882152497857</v>
+        <v>434.0882152497854</v>
       </c>
       <c r="F23" t="n">
-        <v>268.4846024370206</v>
+        <v>268.4846024370204</v>
       </c>
       <c r="G23" t="n">
         <v>97.18733256213</v>
       </c>
       <c r="H23" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I23" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J23" t="n">
         <v>83.71911784006778</v>
@@ -6020,7 +6020,7 @@
         <v>1426.359574180211</v>
       </c>
       <c r="U23" t="n">
-        <v>1418.082820495152</v>
+        <v>1418.082820495151</v>
       </c>
       <c r="V23" t="n">
         <v>1332.402225128423</v>
@@ -6032,7 +6032,7 @@
         <v>1096.932395550913</v>
       </c>
       <c r="Y23" t="n">
-        <v>952.1753555519442</v>
+        <v>952.175355551944</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>509.8319684421951</v>
+        <v>202.9802207647312</v>
       </c>
       <c r="C24" t="n">
-        <v>509.8319684421951</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="D24" t="n">
-        <v>360.8975587809439</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="E24" t="n">
-        <v>360.8975587809439</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="F24" t="n">
-        <v>214.3630008078289</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G24" t="n">
-        <v>77.14002007554096</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H24" t="n">
-        <v>77.14002007554096</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I24" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J24" t="n">
         <v>42.58127776197355</v>
@@ -6099,19 +6099,19 @@
         <v>1226.61330256149</v>
       </c>
       <c r="U24" t="n">
-        <v>1169.450940395784</v>
+        <v>1068.345321509697</v>
       </c>
       <c r="V24" t="n">
-        <v>934.2988321640411</v>
+        <v>833.1932132779548</v>
       </c>
       <c r="W24" t="n">
-        <v>925.4437674126818</v>
+        <v>578.9558565497532</v>
       </c>
       <c r="X24" t="n">
-        <v>717.592267207149</v>
+        <v>578.9558565497532</v>
       </c>
       <c r="Y24" t="n">
-        <v>509.8319684421951</v>
+        <v>371.1955577847992</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="C25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="D25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="E25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="F25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K25" t="n">
-        <v>44.74987851702737</v>
+        <v>44.74987851702735</v>
       </c>
       <c r="L25" t="n">
-        <v>95.41513034635807</v>
+        <v>95.41513034635805</v>
       </c>
       <c r="M25" t="n">
         <v>152.0928176220719</v>
@@ -6172,25 +6172,25 @@
         <v>266.8282898703962</v>
       </c>
       <c r="S25" t="n">
-        <v>266.8282898703962</v>
+        <v>125.6241622146642</v>
       </c>
       <c r="T25" t="n">
-        <v>266.8282898703962</v>
+        <v>125.6241622146642</v>
       </c>
       <c r="U25" t="n">
-        <v>223.0683934284991</v>
+        <v>81.86426577276701</v>
       </c>
       <c r="V25" t="n">
-        <v>213.7661971994546</v>
+        <v>72.56206954372249</v>
       </c>
       <c r="W25" t="n">
-        <v>169.7313191393363</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="X25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.642009607693</v>
+        <v>1619.642009607695</v>
       </c>
       <c r="C26" t="n">
-        <v>1366.982677879086</v>
+        <v>1366.982677879088</v>
       </c>
       <c r="D26" t="n">
-        <v>1125.02016448414</v>
+        <v>1125.020164484142</v>
       </c>
       <c r="E26" t="n">
-        <v>855.5350970976997</v>
+        <v>855.5350970977017</v>
       </c>
       <c r="F26" t="n">
-        <v>560.8523775198964</v>
+        <v>560.8523775198983</v>
       </c>
       <c r="G26" t="n">
-        <v>260.4760008799679</v>
+        <v>260.4760008799683</v>
       </c>
       <c r="H26" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="I26" t="n">
-        <v>62.73675303640417</v>
+        <v>74.83913835551115</v>
       </c>
       <c r="J26" t="n">
-        <v>399.3230802393103</v>
+        <v>244.0198165380639</v>
       </c>
       <c r="K26" t="n">
-        <v>853.6839475081097</v>
+        <v>812.3694356329524</v>
       </c>
       <c r="L26" t="n">
-        <v>1170.139557654626</v>
+        <v>1128.825045779469</v>
       </c>
       <c r="M26" t="n">
-        <v>1875.412538780581</v>
+        <v>1499.766626118251</v>
       </c>
       <c r="N26" t="n">
-        <v>2255.125692899443</v>
+        <v>1879.479780237112</v>
       </c>
       <c r="O26" t="n">
-        <v>2606.695201506225</v>
+        <v>2588.339398965259</v>
       </c>
       <c r="P26" t="n">
-        <v>2870.596829219637</v>
+        <v>2870.596829219642</v>
       </c>
       <c r="Q26" t="n">
-        <v>3062.775604227646</v>
+        <v>3062.775604227651</v>
       </c>
       <c r="R26" t="n">
-        <v>3136.837651820209</v>
+        <v>3136.837651820214</v>
       </c>
       <c r="S26" t="n">
-        <v>3106.228110769875</v>
+        <v>3106.22811076988</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.518416913466</v>
+        <v>3009.51841691347</v>
       </c>
       <c r="U26" t="n">
-        <v>2872.162556463369</v>
+        <v>2872.162556463373</v>
       </c>
       <c r="V26" t="n">
-        <v>2657.402854331603</v>
+        <v>2657.402854331606</v>
       </c>
       <c r="W26" t="n">
-        <v>2420.937384273293</v>
+        <v>2420.937384273297</v>
       </c>
       <c r="X26" t="n">
-        <v>2163.774811224018</v>
+        <v>2163.774811224021</v>
       </c>
       <c r="Y26" t="n">
-        <v>1889.93866446001</v>
+        <v>1889.938664460013</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>315.7822431965122</v>
+        <v>548.3886136201188</v>
       </c>
       <c r="C27" t="n">
-        <v>257.6323991271897</v>
+        <v>422.0597859849057</v>
       </c>
       <c r="D27" t="n">
-        <v>225.0011746777429</v>
+        <v>273.1253763236545</v>
       </c>
       <c r="E27" t="n">
-        <v>182.0669048840918</v>
+        <v>113.887921318199</v>
       </c>
       <c r="F27" t="n">
-        <v>151.8355321227812</v>
+        <v>83.65654855688805</v>
       </c>
       <c r="G27" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="H27" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="I27" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="J27" t="n">
-        <v>76.79083931477351</v>
+        <v>76.79083931477361</v>
       </c>
       <c r="K27" t="n">
-        <v>178.9663359913588</v>
+        <v>178.9663359913589</v>
       </c>
       <c r="L27" t="n">
-        <v>362.6764416676406</v>
+        <v>362.6764416676407</v>
       </c>
       <c r="M27" t="n">
-        <v>596.414338118239</v>
+        <v>596.4143381182391</v>
       </c>
       <c r="N27" t="n">
-        <v>850.7472260948143</v>
+        <v>850.7472260948146</v>
       </c>
       <c r="O27" t="n">
         <v>1061.192335431869</v>
       </c>
       <c r="P27" t="n">
-        <v>1210.760022600147</v>
+        <v>1210.760022600148</v>
       </c>
       <c r="Q27" t="n">
         <v>1260.82286411429</v>
@@ -6330,25 +6330,25 @@
         <v>1260.82286411429</v>
       </c>
       <c r="S27" t="n">
-        <v>1231.716258467044</v>
+        <v>1231.716258467043</v>
       </c>
       <c r="T27" t="n">
         <v>1151.910521255174</v>
       </c>
       <c r="U27" t="n">
-        <v>923.7861032997936</v>
+        <v>1040.089288511597</v>
       </c>
       <c r="V27" t="n">
-        <v>804.9371802798553</v>
+        <v>921.2403654916586</v>
       </c>
       <c r="W27" t="n">
-        <v>667.0030087634581</v>
+        <v>783.3061939752611</v>
       </c>
       <c r="X27" t="n">
-        <v>575.4546937697297</v>
+        <v>691.7578789815324</v>
       </c>
       <c r="Y27" t="n">
-        <v>367.6943950047758</v>
+        <v>600.3007654283826</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.525605414752</v>
+        <v>302.5256054147544</v>
       </c>
       <c r="C28" t="n">
-        <v>249.8926076986495</v>
+        <v>249.8926076986516</v>
       </c>
       <c r="D28" t="n">
-        <v>216.0791534981183</v>
+        <v>216.07915349812</v>
       </c>
       <c r="E28" t="n">
-        <v>184.4692451275296</v>
+        <v>184.4692451275311</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8824828414237</v>
+        <v>153.8824828414248</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7619364475902</v>
+        <v>101.761936447591</v>
       </c>
       <c r="H28" t="n">
-        <v>65.43852314280633</v>
+        <v>65.43852314280676</v>
       </c>
       <c r="I28" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="J28" t="n">
-        <v>171.8951109729081</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="K28" t="n">
-        <v>402.3930017145882</v>
+        <v>184.6357687510334</v>
       </c>
       <c r="L28" t="n">
-        <v>613.9082080700578</v>
+        <v>396.150975106503</v>
       </c>
       <c r="M28" t="n">
-        <v>670.5858953457716</v>
+        <v>629.553226682568</v>
       </c>
       <c r="N28" t="n">
-        <v>1017.861731306984</v>
+        <v>862.8403108176906</v>
       </c>
       <c r="O28" t="n">
-        <v>1055.912566897781</v>
+        <v>1062.302396110711</v>
       </c>
       <c r="P28" t="n">
-        <v>1203.066156777103</v>
+        <v>1252.365379809224</v>
       </c>
       <c r="Q28" t="n">
-        <v>1270.811817714891</v>
+        <v>1270.811817714896</v>
       </c>
       <c r="R28" t="n">
-        <v>1264.870485931084</v>
+        <v>1264.870485931088</v>
       </c>
       <c r="S28" t="n">
-        <v>1176.924553539312</v>
+        <v>1176.924553539317</v>
       </c>
       <c r="T28" t="n">
-        <v>1068.380935677299</v>
+        <v>1068.380935677304</v>
       </c>
       <c r="U28" t="n">
-        <v>895.5419324703644</v>
+        <v>895.5419324703685</v>
       </c>
       <c r="V28" t="n">
-        <v>757.160629476282</v>
+        <v>757.1606294762857</v>
       </c>
       <c r="W28" t="n">
-        <v>584.0466446511258</v>
+        <v>584.0466446511292</v>
       </c>
       <c r="X28" t="n">
-        <v>472.3602789649129</v>
+        <v>472.360278964916</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.8708850331872</v>
+        <v>367.87088503319</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1619.642009607693</v>
+        <v>1619.642009607696</v>
       </c>
       <c r="C29" t="n">
-        <v>1366.982677879086</v>
+        <v>1366.982677879088</v>
       </c>
       <c r="D29" t="n">
-        <v>1125.02016448414</v>
+        <v>1125.020164484142</v>
       </c>
       <c r="E29" t="n">
-        <v>855.5350970977003</v>
+        <v>855.5350970977022</v>
       </c>
       <c r="F29" t="n">
-        <v>560.8523775198972</v>
+        <v>560.8523775198988</v>
       </c>
       <c r="G29" t="n">
-        <v>260.4760008799678</v>
+        <v>260.4760008799683</v>
       </c>
       <c r="H29" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="I29" t="n">
-        <v>74.83913835551147</v>
+        <v>74.8391383555112</v>
       </c>
       <c r="J29" t="n">
-        <v>130.031064711975</v>
+        <v>244.019816538064</v>
       </c>
       <c r="K29" t="n">
-        <v>404.6182429275501</v>
+        <v>435.8970811223305</v>
       </c>
       <c r="L29" t="n">
-        <v>1134.558455479013</v>
+        <v>1051.848541847703</v>
       </c>
       <c r="M29" t="n">
-        <v>1505.500035817795</v>
+        <v>1828.215860673206</v>
       </c>
       <c r="N29" t="n">
-        <v>1853.129913594451</v>
+        <v>2350.758642184568</v>
       </c>
       <c r="O29" t="n">
-        <v>2204.699422201233</v>
+        <v>2702.328150791348</v>
       </c>
       <c r="P29" t="n">
-        <v>2805.537573545384</v>
+        <v>2984.585581045731</v>
       </c>
       <c r="Q29" t="n">
-        <v>2997.716348553393</v>
+        <v>3062.775604227651</v>
       </c>
       <c r="R29" t="n">
-        <v>3136.837651820209</v>
+        <v>3136.837651820214</v>
       </c>
       <c r="S29" t="n">
-        <v>3106.228110769875</v>
+        <v>3106.22811076988</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.518416913466</v>
+        <v>3009.518416913471</v>
       </c>
       <c r="U29" t="n">
-        <v>2872.162556463369</v>
+        <v>2872.162556463373</v>
       </c>
       <c r="V29" t="n">
-        <v>2657.402854331603</v>
+        <v>2657.402854331607</v>
       </c>
       <c r="W29" t="n">
-        <v>2420.937384273293</v>
+        <v>2420.937384273297</v>
       </c>
       <c r="X29" t="n">
-        <v>2163.774811224017</v>
+        <v>2163.774811224021</v>
       </c>
       <c r="Y29" t="n">
-        <v>1889.93866446001</v>
+        <v>1889.938664460014</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>247.6032596306182</v>
+        <v>247.6032596306202</v>
       </c>
       <c r="C30" t="n">
-        <v>189.4534155612957</v>
+        <v>189.4534155612973</v>
       </c>
       <c r="D30" t="n">
-        <v>156.822191111849</v>
+        <v>156.8221911118502</v>
       </c>
       <c r="E30" t="n">
-        <v>113.887921318198</v>
+        <v>113.8879213181989</v>
       </c>
       <c r="F30" t="n">
-        <v>83.65654855688754</v>
+        <v>83.65654855688803</v>
       </c>
       <c r="G30" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="H30" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="I30" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="J30" t="n">
-        <v>76.79083931477351</v>
+        <v>76.79083931477361</v>
       </c>
       <c r="K30" t="n">
-        <v>178.9663359913588</v>
+        <v>178.9663359913589</v>
       </c>
       <c r="L30" t="n">
-        <v>362.6764416676406</v>
+        <v>362.6764416676407</v>
       </c>
       <c r="M30" t="n">
-        <v>596.414338118239</v>
+        <v>596.4143381182391</v>
       </c>
       <c r="N30" t="n">
-        <v>850.7472260948143</v>
+        <v>850.7472260948146</v>
       </c>
       <c r="O30" t="n">
         <v>1061.192335431869</v>
       </c>
       <c r="P30" t="n">
-        <v>1210.760022600147</v>
+        <v>1210.760022600148</v>
       </c>
       <c r="Q30" t="n">
         <v>1260.82286411429</v>
@@ -6573,19 +6573,19 @@
         <v>1151.910521255174</v>
       </c>
       <c r="U30" t="n">
-        <v>1040.089288511598</v>
+        <v>1040.089288511597</v>
       </c>
       <c r="V30" t="n">
-        <v>804.9371802798555</v>
+        <v>804.9371802798548</v>
       </c>
       <c r="W30" t="n">
-        <v>598.8240251975639</v>
+        <v>550.6998235516533</v>
       </c>
       <c r="X30" t="n">
-        <v>507.2757102038356</v>
+        <v>390.9725249920338</v>
       </c>
       <c r="Y30" t="n">
-        <v>415.8185966506862</v>
+        <v>299.515411438884</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.5256054147514</v>
+        <v>302.5256054147541</v>
       </c>
       <c r="C31" t="n">
-        <v>249.892607698649</v>
+        <v>249.8926076986514</v>
       </c>
       <c r="D31" t="n">
-        <v>216.0791534981178</v>
+        <v>216.0791534981198</v>
       </c>
       <c r="E31" t="n">
-        <v>184.4692451275293</v>
+        <v>184.4692451275309</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8824828414235</v>
+        <v>153.8824828414247</v>
       </c>
       <c r="G31" t="n">
-        <v>101.76193644759</v>
+        <v>101.7619364475909</v>
       </c>
       <c r="H31" t="n">
-        <v>65.43852314280625</v>
+        <v>65.43852314280672</v>
       </c>
       <c r="I31" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="J31" t="n">
-        <v>138.5952320634121</v>
+        <v>138.5952320634118</v>
       </c>
       <c r="K31" t="n">
-        <v>245.336183269046</v>
+        <v>268.8066709229242</v>
       </c>
       <c r="L31" t="n">
-        <v>570.8401414506052</v>
+        <v>433.4606745783442</v>
       </c>
       <c r="M31" t="n">
-        <v>918.2311448527598</v>
+        <v>604.1271136801473</v>
       </c>
       <c r="N31" t="n">
-        <v>1151.518228987882</v>
+        <v>781.3034099653419</v>
       </c>
       <c r="O31" t="n">
-        <v>1189.56906457868</v>
+        <v>1075.580312752597</v>
       </c>
       <c r="P31" t="n">
-        <v>1203.066156777101</v>
+        <v>1203.066156777108</v>
       </c>
       <c r="Q31" t="n">
-        <v>1270.811817714889</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="R31" t="n">
-        <v>1264.870485931082</v>
+        <v>1264.870485931088</v>
       </c>
       <c r="S31" t="n">
-        <v>1176.924553539311</v>
+        <v>1176.924553539316</v>
       </c>
       <c r="T31" t="n">
-        <v>1068.380935677298</v>
+        <v>1068.380935677303</v>
       </c>
       <c r="U31" t="n">
-        <v>895.5419324703632</v>
+        <v>895.541932470368</v>
       </c>
       <c r="V31" t="n">
-        <v>757.160629476281</v>
+        <v>757.1606294762853</v>
       </c>
       <c r="W31" t="n">
-        <v>584.0466446511249</v>
+        <v>584.0466446511288</v>
       </c>
       <c r="X31" t="n">
-        <v>472.3602789649121</v>
+        <v>472.3602789649156</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.8708850331865</v>
+        <v>367.8708850331897</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.642009607693</v>
+        <v>1619.642009607695</v>
       </c>
       <c r="C32" t="n">
-        <v>1366.982677879085</v>
+        <v>1366.982677879088</v>
       </c>
       <c r="D32" t="n">
-        <v>1125.02016448414</v>
+        <v>1125.020164484141</v>
       </c>
       <c r="E32" t="n">
-        <v>855.5350970976997</v>
+        <v>855.5350970977011</v>
       </c>
       <c r="F32" t="n">
-        <v>560.8523775198967</v>
+        <v>560.8523775198976</v>
       </c>
       <c r="G32" t="n">
-        <v>260.4760008799679</v>
+        <v>260.4760008799683</v>
       </c>
       <c r="H32" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="I32" t="n">
-        <v>74.83913835551138</v>
+        <v>74.83913835551112</v>
       </c>
       <c r="J32" t="n">
-        <v>317.3231552169573</v>
+        <v>244.0198165380639</v>
       </c>
       <c r="K32" t="n">
-        <v>450.7800640403034</v>
+        <v>491.4654771874992</v>
       </c>
       <c r="L32" t="n">
-        <v>1102.475179136807</v>
+        <v>872.0860521261247</v>
       </c>
       <c r="M32" t="n">
-        <v>1473.416759475589</v>
+        <v>1648.453370951628</v>
       </c>
       <c r="N32" t="n">
-        <v>1853.129913594451</v>
+        <v>2424.820689777131</v>
       </c>
       <c r="O32" t="n">
-        <v>2204.699422201233</v>
+        <v>2776.390198383911</v>
       </c>
       <c r="P32" t="n">
-        <v>2805.537573545384</v>
+        <v>3058.647628638294</v>
       </c>
       <c r="Q32" t="n">
-        <v>2997.716348553393</v>
+        <v>3136.837651820214</v>
       </c>
       <c r="R32" t="n">
-        <v>3136.837651820209</v>
+        <v>3136.837651820214</v>
       </c>
       <c r="S32" t="n">
-        <v>3106.228110769875</v>
+        <v>3106.22811076988</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.518416913466</v>
+        <v>3009.518416913471</v>
       </c>
       <c r="U32" t="n">
-        <v>2872.162556463368</v>
+        <v>2872.162556463373</v>
       </c>
       <c r="V32" t="n">
-        <v>2657.402854331602</v>
+        <v>2657.402854331606</v>
       </c>
       <c r="W32" t="n">
-        <v>2420.937384273293</v>
+        <v>2420.937384273296</v>
       </c>
       <c r="X32" t="n">
-        <v>2163.774811224017</v>
+        <v>2163.774811224021</v>
       </c>
       <c r="Y32" t="n">
-        <v>1889.93866446001</v>
+        <v>1889.938664460013</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>315.7822431965121</v>
+        <v>432.0854284083146</v>
       </c>
       <c r="C33" t="n">
-        <v>257.6323991271896</v>
+        <v>373.9355843389916</v>
       </c>
       <c r="D33" t="n">
-        <v>225.0011746777427</v>
+        <v>341.3043598895445</v>
       </c>
       <c r="E33" t="n">
-        <v>113.8879213181982</v>
+        <v>230.1911065300031</v>
       </c>
       <c r="F33" t="n">
-        <v>83.65654855688763</v>
+        <v>83.65654855688808</v>
       </c>
       <c r="G33" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="H33" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="I33" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="J33" t="n">
-        <v>76.79083931477351</v>
+        <v>76.79083931477361</v>
       </c>
       <c r="K33" t="n">
-        <v>178.9663359913588</v>
+        <v>178.9663359913589</v>
       </c>
       <c r="L33" t="n">
-        <v>362.6764416676406</v>
+        <v>362.6764416676407</v>
       </c>
       <c r="M33" t="n">
-        <v>596.414338118239</v>
+        <v>596.4143381182391</v>
       </c>
       <c r="N33" t="n">
-        <v>850.7472260948143</v>
+        <v>850.7472260948146</v>
       </c>
       <c r="O33" t="n">
         <v>1061.192335431869</v>
       </c>
       <c r="P33" t="n">
-        <v>1210.760022600147</v>
+        <v>1210.760022600148</v>
       </c>
       <c r="Q33" t="n">
         <v>1260.82286411429</v>
@@ -6804,25 +6804,25 @@
         <v>1260.82286411429</v>
       </c>
       <c r="S33" t="n">
-        <v>1231.716258467044</v>
+        <v>1231.716258467043</v>
       </c>
       <c r="T33" t="n">
-        <v>1035.60733604337</v>
+        <v>1151.910521255174</v>
       </c>
       <c r="U33" t="n">
-        <v>923.7861032997935</v>
+        <v>1040.089288511597</v>
       </c>
       <c r="V33" t="n">
-        <v>804.9371802798552</v>
+        <v>921.2403654916586</v>
       </c>
       <c r="W33" t="n">
-        <v>667.003008763458</v>
+        <v>667.003008763457</v>
       </c>
       <c r="X33" t="n">
-        <v>575.4546937697296</v>
+        <v>575.4546937697284</v>
       </c>
       <c r="Y33" t="n">
-        <v>483.9975802165802</v>
+        <v>483.9975802165785</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.525605414752</v>
+        <v>302.5256054147546</v>
       </c>
       <c r="C34" t="n">
-        <v>249.8926076986495</v>
+        <v>249.8926076986518</v>
       </c>
       <c r="D34" t="n">
-        <v>216.0791534981183</v>
+        <v>216.0791534981202</v>
       </c>
       <c r="E34" t="n">
-        <v>184.4692451275296</v>
+        <v>184.4692451275312</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8824828414237</v>
+        <v>153.8824828414249</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7619364475902</v>
+        <v>101.761936447591</v>
       </c>
       <c r="H34" t="n">
-        <v>65.43852314280633</v>
+        <v>65.43852314280679</v>
       </c>
       <c r="I34" t="n">
-        <v>62.73675303640417</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="J34" t="n">
-        <v>171.8951109729081</v>
+        <v>138.5952320634117</v>
       </c>
       <c r="K34" t="n">
-        <v>302.1065498324208</v>
+        <v>185.5045029731816</v>
       </c>
       <c r="L34" t="n">
-        <v>627.6105080139799</v>
+        <v>511.0084611547403</v>
       </c>
       <c r="M34" t="n">
-        <v>684.2881952896938</v>
+        <v>681.6749002565433</v>
       </c>
       <c r="N34" t="n">
-        <v>839.1834506869201</v>
+        <v>858.8511965417379</v>
       </c>
       <c r="O34" t="n">
-        <v>991.2230381038069</v>
+        <v>1010.890783958624</v>
       </c>
       <c r="P34" t="n">
-        <v>1252.365379809219</v>
+        <v>1138.376627983135</v>
       </c>
       <c r="Q34" t="n">
-        <v>1270.811817714891</v>
+        <v>1270.811817714896</v>
       </c>
       <c r="R34" t="n">
-        <v>1264.870485931084</v>
+        <v>1264.870485931089</v>
       </c>
       <c r="S34" t="n">
-        <v>1176.924553539312</v>
+        <v>1176.924553539317</v>
       </c>
       <c r="T34" t="n">
-        <v>1068.380935677299</v>
+        <v>1068.380935677304</v>
       </c>
       <c r="U34" t="n">
-        <v>895.5419324703644</v>
+        <v>895.5419324703687</v>
       </c>
       <c r="V34" t="n">
-        <v>757.160629476282</v>
+        <v>757.160629476286</v>
       </c>
       <c r="W34" t="n">
-        <v>584.0466446511258</v>
+        <v>584.0466446511294</v>
       </c>
       <c r="X34" t="n">
-        <v>472.3602789649129</v>
+        <v>472.3602789649162</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8708850331872</v>
+        <v>367.8708850331902</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.8582442291563</v>
+        <v>955.8582442291595</v>
       </c>
       <c r="C35" t="n">
-        <v>809.0750081497044</v>
+        <v>809.0750081497073</v>
       </c>
       <c r="D35" t="n">
-        <v>672.9885904039138</v>
+        <v>672.9885904039162</v>
       </c>
       <c r="E35" t="n">
-        <v>509.3796186666295</v>
+        <v>509.3796186666314</v>
       </c>
       <c r="F35" t="n">
-        <v>320.5729947379818</v>
+        <v>320.5729947379832</v>
       </c>
       <c r="G35" t="n">
-        <v>126.0727137472082</v>
+        <v>126.0727137472088</v>
       </c>
       <c r="H35" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I35" t="n">
-        <v>34.20956155279993</v>
+        <v>52.06174544572066</v>
       </c>
       <c r="J35" t="n">
-        <v>89.40148790926348</v>
+        <v>107.2536718021842</v>
       </c>
       <c r="K35" t="n">
-        <v>222.8583967326097</v>
+        <v>240.7105806255304</v>
       </c>
       <c r="L35" t="n">
-        <v>425.3252550530368</v>
+        <v>443.1774389459575</v>
       </c>
       <c r="M35" t="n">
-        <v>682.2780835657295</v>
+        <v>700.1302674586502</v>
       </c>
       <c r="N35" t="n">
-        <v>948.002485858502</v>
+        <v>965.8546697514228</v>
       </c>
       <c r="O35" t="n">
-        <v>1371.345810074401</v>
+        <v>1203.435426532114</v>
       </c>
       <c r="P35" t="n">
-        <v>1558.519304295772</v>
+        <v>1371.704104960408</v>
       </c>
       <c r="Q35" t="n">
-        <v>1636.709327477691</v>
+        <v>1449.894128142328</v>
       </c>
       <c r="R35" t="n">
-        <v>1636.709327477691</v>
+        <v>1627.725337080627</v>
       </c>
       <c r="S35" t="n">
-        <v>1710.478077639996</v>
+        <v>1701.494087242932</v>
       </c>
       <c r="T35" t="n">
-        <v>1710.478077639996</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="U35" t="n">
-        <v>1678.998312839055</v>
+        <v>1678.99831283906</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.114706356444</v>
+        <v>1570.114706356449</v>
       </c>
       <c r="W35" t="n">
-        <v>1439.52533194729</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X35" t="n">
-        <v>1288.23885454717</v>
+        <v>1288.238854547174</v>
       </c>
       <c r="Y35" t="n">
-        <v>1120.278803432318</v>
+        <v>1120.278803432322</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>175.9394807467831</v>
+        <v>208.6625908339271</v>
       </c>
       <c r="C36" t="n">
-        <v>175.9394807467831</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="D36" t="n">
-        <v>175.9394807467831</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="E36" t="n">
-        <v>175.9394807467831</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="F36" t="n">
-        <v>171.4325422850878</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="G36" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="H36" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I36" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J36" t="n">
-        <v>48.26364783116925</v>
+        <v>48.26364783116938</v>
       </c>
       <c r="K36" t="n">
-        <v>150.4391445077545</v>
+        <v>150.4391445077546</v>
       </c>
       <c r="L36" t="n">
-        <v>334.1492501840364</v>
+        <v>334.1492501840365</v>
       </c>
       <c r="M36" t="n">
-        <v>567.8871466346347</v>
+        <v>567.8871466346349</v>
       </c>
       <c r="N36" t="n">
         <v>822.2200346112102</v>
@@ -7041,25 +7041,25 @@
         <v>1232.295672630685</v>
       </c>
       <c r="S36" t="n">
-        <v>1086.885881771635</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="T36" t="n">
-        <v>1086.885881771635</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="U36" t="n">
-        <v>1080.940744677214</v>
+        <v>1226.350535536264</v>
       </c>
       <c r="V36" t="n">
-        <v>845.7886364454714</v>
+        <v>1046.727083552684</v>
       </c>
       <c r="W36" t="n">
-        <v>591.5512797172698</v>
+        <v>792.4897268244819</v>
       </c>
       <c r="X36" t="n">
-        <v>383.699779511737</v>
+        <v>584.638226618949</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.9394807467831</v>
+        <v>376.8779278539951</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.32686361096999</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="C37" t="n">
-        <v>97.32686361096999</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="D37" t="n">
-        <v>97.32686361096999</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="E37" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="F37" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="G37" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="H37" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I37" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J37" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="K37" t="n">
-        <v>50.43224858622306</v>
+        <v>50.43224858622319</v>
       </c>
       <c r="L37" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M37" t="n">
-        <v>157.7751876912676</v>
+        <v>157.7751876912677</v>
       </c>
       <c r="N37" t="n">
-        <v>220.962732150373</v>
+        <v>220.9627321503731</v>
       </c>
       <c r="O37" t="n">
-        <v>259.0135677411702</v>
+        <v>259.0135677411703</v>
       </c>
       <c r="P37" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="Q37" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="R37" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="S37" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="T37" t="n">
-        <v>269.8431377267347</v>
+        <v>269.8431377267344</v>
       </c>
       <c r="U37" t="n">
-        <v>202.8802301689551</v>
+        <v>202.8802301689543</v>
       </c>
       <c r="V37" t="n">
-        <v>170.3750228240281</v>
+        <v>170.3750228240268</v>
       </c>
       <c r="W37" t="n">
-        <v>103.1371336480274</v>
+        <v>103.1371336480256</v>
       </c>
       <c r="X37" t="n">
-        <v>97.32686361096999</v>
+        <v>97.32686361096766</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.32686361096999</v>
+        <v>34.20956155280005</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>955.8582442291568</v>
+        <v>955.8582442291594</v>
       </c>
       <c r="C38" t="n">
-        <v>809.0750081497051</v>
+        <v>809.0750081497073</v>
       </c>
       <c r="D38" t="n">
-        <v>672.9885904039147</v>
+        <v>672.9885904039163</v>
       </c>
       <c r="E38" t="n">
-        <v>509.3796186666306</v>
+        <v>509.3796186666315</v>
       </c>
       <c r="F38" t="n">
-        <v>320.572994737983</v>
+        <v>320.5729947379834</v>
       </c>
       <c r="G38" t="n">
-        <v>126.072713747208</v>
+        <v>126.0727137472087</v>
       </c>
       <c r="H38" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I38" t="n">
-        <v>34.20956155279993</v>
+        <v>52.06174544572021</v>
       </c>
       <c r="J38" t="n">
-        <v>89.40148790926348</v>
+        <v>107.2536718021838</v>
       </c>
       <c r="K38" t="n">
-        <v>440.6163099044365</v>
+        <v>240.7105806255299</v>
       </c>
       <c r="L38" t="n">
-        <v>643.0831682248636</v>
+        <v>443.177438945957</v>
       </c>
       <c r="M38" t="n">
-        <v>900.0359967375564</v>
+        <v>700.1302674586498</v>
       </c>
       <c r="N38" t="n">
-        <v>1165.760399030329</v>
+        <v>965.8546697514223</v>
       </c>
       <c r="O38" t="n">
-        <v>1403.341155811021</v>
+        <v>1203.435426532114</v>
       </c>
       <c r="P38" t="n">
-        <v>1571.609834239314</v>
+        <v>1371.704104960408</v>
       </c>
       <c r="Q38" t="n">
-        <v>1649.799857421234</v>
+        <v>1449.894128142327</v>
       </c>
       <c r="R38" t="n">
-        <v>1649.799857421234</v>
+        <v>1627.725337080627</v>
       </c>
       <c r="S38" t="n">
-        <v>1701.494087242925</v>
+        <v>1701.494087242932</v>
       </c>
       <c r="T38" t="n">
-        <v>1710.478077639996</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.998312839055</v>
+        <v>1678.99831283906</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.114706356444</v>
+        <v>1570.114706356449</v>
       </c>
       <c r="W38" t="n">
-        <v>1439.52533194729</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X38" t="n">
-        <v>1288.23885454717</v>
+        <v>1288.238854547174</v>
       </c>
       <c r="Y38" t="n">
-        <v>1120.278803432318</v>
+        <v>1120.278803432322</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>227.2270202735281</v>
+        <v>663.3690134737489</v>
       </c>
       <c r="C39" t="n">
-        <v>171.4325422850878</v>
+        <v>488.9159841926219</v>
       </c>
       <c r="D39" t="n">
-        <v>171.4325422850878</v>
+        <v>339.9815745313706</v>
       </c>
       <c r="E39" t="n">
-        <v>171.4325422850878</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="F39" t="n">
-        <v>171.4325422850878</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="G39" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="H39" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I39" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J39" t="n">
-        <v>48.26364783116925</v>
+        <v>48.26364783116938</v>
       </c>
       <c r="K39" t="n">
-        <v>150.4391445077545</v>
+        <v>150.4391445077546</v>
       </c>
       <c r="L39" t="n">
-        <v>334.1492501840364</v>
+        <v>334.1492501840365</v>
       </c>
       <c r="M39" t="n">
-        <v>567.8871466346347</v>
+        <v>567.8871466346349</v>
       </c>
       <c r="N39" t="n">
         <v>822.2200346112102</v>
@@ -7278,25 +7278,25 @@
         <v>1232.295672630685</v>
       </c>
       <c r="S39" t="n">
-        <v>1086.885881771635</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="T39" t="n">
-        <v>890.7769593479613</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="U39" t="n">
-        <v>662.6525413925805</v>
+        <v>1226.350535536264</v>
       </c>
       <c r="V39" t="n">
-        <v>427.5004331608378</v>
+        <v>1213.377708165481</v>
       </c>
       <c r="W39" t="n">
-        <v>395.4423572935962</v>
+        <v>1181.319632298239</v>
       </c>
       <c r="X39" t="n">
-        <v>395.4423572935962</v>
+        <v>1039.344649258771</v>
       </c>
       <c r="Y39" t="n">
-        <v>395.4423572935962</v>
+        <v>831.5843504938168</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="C40" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="D40" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="E40" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="F40" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="G40" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="H40" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I40" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J40" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="K40" t="n">
-        <v>50.43224858622306</v>
+        <v>50.43224858622319</v>
       </c>
       <c r="L40" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M40" t="n">
-        <v>157.7751876912676</v>
+        <v>157.7751876912677</v>
       </c>
       <c r="N40" t="n">
-        <v>220.962732150373</v>
+        <v>220.9627321503731</v>
       </c>
       <c r="O40" t="n">
-        <v>259.0135677411702</v>
+        <v>259.0135677411703</v>
       </c>
       <c r="P40" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="Q40" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="R40" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="S40" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="T40" t="n">
-        <v>206.7258356685641</v>
+        <v>269.8431377267344</v>
       </c>
       <c r="U40" t="n">
-        <v>139.7629281107846</v>
+        <v>139.7629281107865</v>
       </c>
       <c r="V40" t="n">
-        <v>107.2577207658578</v>
+        <v>107.2577207658591</v>
       </c>
       <c r="W40" t="n">
-        <v>40.01983158985721</v>
+        <v>40.01983158985792</v>
       </c>
       <c r="X40" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.20956155279993</v>
+        <v>34.20956155280005</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>955.8582442291556</v>
+        <v>955.8582442291593</v>
       </c>
       <c r="C41" t="n">
-        <v>809.0750081497041</v>
+        <v>809.0750081497068</v>
       </c>
       <c r="D41" t="n">
-        <v>672.9885904039138</v>
+        <v>672.9885904039159</v>
       </c>
       <c r="E41" t="n">
-        <v>509.3796186666298</v>
+        <v>509.3796186666314</v>
       </c>
       <c r="F41" t="n">
-        <v>320.5729947379823</v>
+        <v>320.5729947379832</v>
       </c>
       <c r="G41" t="n">
-        <v>126.072713747208</v>
+        <v>126.0727137472088</v>
       </c>
       <c r="H41" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I41" t="n">
-        <v>34.20956155279991</v>
+        <v>150.081108217644</v>
       </c>
       <c r="J41" t="n">
-        <v>89.40148790926347</v>
+        <v>205.2730345741076</v>
       </c>
       <c r="K41" t="n">
-        <v>222.8583967326096</v>
+        <v>338.7299433974538</v>
       </c>
       <c r="L41" t="n">
-        <v>425.3252550530367</v>
+        <v>541.1968017178808</v>
       </c>
       <c r="M41" t="n">
-        <v>682.2780835657295</v>
+        <v>798.1496302305736</v>
       </c>
       <c r="N41" t="n">
-        <v>1105.621407781628</v>
+        <v>1063.874032523346</v>
       </c>
       <c r="O41" t="n">
-        <v>1343.20216456232</v>
+        <v>1301.454789304038</v>
       </c>
       <c r="P41" t="n">
-        <v>1511.470842990614</v>
+        <v>1469.723467732332</v>
       </c>
       <c r="Q41" t="n">
-        <v>1589.660866172533</v>
+        <v>1547.913490914251</v>
       </c>
       <c r="R41" t="n">
-        <v>1710.478077639995</v>
+        <v>1627.725337080627</v>
       </c>
       <c r="S41" t="n">
-        <v>1710.478077639995</v>
+        <v>1701.494087242932</v>
       </c>
       <c r="T41" t="n">
-        <v>1710.478077639995</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="U41" t="n">
-        <v>1678.998312839054</v>
+        <v>1678.99831283906</v>
       </c>
       <c r="V41" t="n">
-        <v>1570.114706356443</v>
+        <v>1570.114706356449</v>
       </c>
       <c r="W41" t="n">
-        <v>1439.525331947289</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X41" t="n">
-        <v>1288.238854547169</v>
+        <v>1288.238854547174</v>
       </c>
       <c r="Y41" t="n">
-        <v>1120.278803432317</v>
+        <v>1120.278803432322</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>379.28282588248</v>
+        <v>663.3690134737489</v>
       </c>
       <c r="C42" t="n">
-        <v>379.28282588248</v>
+        <v>488.9159841926219</v>
       </c>
       <c r="D42" t="n">
-        <v>379.28282588248</v>
+        <v>339.9815745313706</v>
       </c>
       <c r="E42" t="n">
-        <v>220.0453708770245</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="F42" t="n">
-        <v>220.0453708770245</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="G42" t="n">
-        <v>82.82239014473663</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="H42" t="n">
-        <v>82.82239014473663</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I42" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J42" t="n">
-        <v>48.26364783116924</v>
+        <v>48.26364783116938</v>
       </c>
       <c r="K42" t="n">
-        <v>150.4391445077545</v>
+        <v>150.4391445077546</v>
       </c>
       <c r="L42" t="n">
-        <v>334.1492501840364</v>
+        <v>334.1492501840365</v>
       </c>
       <c r="M42" t="n">
-        <v>567.8871466346347</v>
+        <v>567.8871466346349</v>
       </c>
       <c r="N42" t="n">
         <v>822.2200346112102</v>
@@ -7512,28 +7512,28 @@
         <v>1232.295672630685</v>
       </c>
       <c r="R42" t="n">
-        <v>1178.763296079299</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="S42" t="n">
-        <v>1178.763296079299</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="T42" t="n">
-        <v>1178.763296079299</v>
+        <v>1232.295672630685</v>
       </c>
       <c r="U42" t="n">
-        <v>1172.818158984878</v>
+        <v>1226.350535536264</v>
       </c>
       <c r="V42" t="n">
-        <v>1159.845331614096</v>
+        <v>1213.377708165481</v>
       </c>
       <c r="W42" t="n">
-        <v>905.607974885894</v>
+        <v>1181.319632298239</v>
       </c>
       <c r="X42" t="n">
-        <v>697.7564746803612</v>
+        <v>1039.344649258771</v>
       </c>
       <c r="Y42" t="n">
-        <v>547.4981629025481</v>
+        <v>831.5843504938168</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="C43" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="D43" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="E43" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="F43" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="G43" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="H43" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I43" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J43" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="K43" t="n">
-        <v>50.43224858622305</v>
+        <v>50.43224858622319</v>
       </c>
       <c r="L43" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M43" t="n">
-        <v>157.7751876912676</v>
+        <v>157.7751876912677</v>
       </c>
       <c r="N43" t="n">
-        <v>220.962732150373</v>
+        <v>220.9627321503731</v>
       </c>
       <c r="O43" t="n">
-        <v>259.0135677411702</v>
+        <v>259.0135677411703</v>
       </c>
       <c r="P43" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="Q43" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="R43" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="S43" t="n">
-        <v>272.510659939592</v>
+        <v>209.3933578814245</v>
       </c>
       <c r="T43" t="n">
-        <v>206.7258356685641</v>
+        <v>206.7258356685668</v>
       </c>
       <c r="U43" t="n">
-        <v>139.7629281107846</v>
+        <v>139.7629281107866</v>
       </c>
       <c r="V43" t="n">
-        <v>107.2577207658578</v>
+        <v>107.2577207658592</v>
       </c>
       <c r="W43" t="n">
-        <v>40.0198315898572</v>
+        <v>40.01983158985797</v>
       </c>
       <c r="X43" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>955.8582442291558</v>
+        <v>955.8582442291594</v>
       </c>
       <c r="C44" t="n">
-        <v>809.0750081497042</v>
+        <v>809.0750081497072</v>
       </c>
       <c r="D44" t="n">
-        <v>672.9885904039138</v>
+        <v>672.9885904039161</v>
       </c>
       <c r="E44" t="n">
-        <v>509.3796186666298</v>
+        <v>509.3796186666314</v>
       </c>
       <c r="F44" t="n">
-        <v>320.5729947379823</v>
+        <v>320.5729947379832</v>
       </c>
       <c r="G44" t="n">
-        <v>126.072713747208</v>
+        <v>126.0727137472088</v>
       </c>
       <c r="H44" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I44" t="n">
-        <v>34.20956155279991</v>
+        <v>150.081108217644</v>
       </c>
       <c r="J44" t="n">
-        <v>150.0797081280251</v>
+        <v>205.2730345741076</v>
       </c>
       <c r="K44" t="n">
-        <v>283.5366169513713</v>
+        <v>338.7299433974538</v>
       </c>
       <c r="L44" t="n">
-        <v>703.7613884436253</v>
+        <v>541.1968017178808</v>
       </c>
       <c r="M44" t="n">
-        <v>960.7142169563181</v>
+        <v>798.1496302305736</v>
       </c>
       <c r="N44" t="n">
-        <v>1226.438619249091</v>
+        <v>1063.874032523346</v>
       </c>
       <c r="O44" t="n">
-        <v>1464.019376029782</v>
+        <v>1301.454789304038</v>
       </c>
       <c r="P44" t="n">
-        <v>1632.288054458076</v>
+        <v>1469.723467732332</v>
       </c>
       <c r="Q44" t="n">
-        <v>1710.478077639995</v>
+        <v>1547.913490914251</v>
       </c>
       <c r="R44" t="n">
-        <v>1710.478077639995</v>
+        <v>1627.725337080627</v>
       </c>
       <c r="S44" t="n">
-        <v>1710.478077639995</v>
+        <v>1701.494087242932</v>
       </c>
       <c r="T44" t="n">
-        <v>1710.478077639995</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="U44" t="n">
-        <v>1678.998312839054</v>
+        <v>1678.99831283906</v>
       </c>
       <c r="V44" t="n">
-        <v>1570.114706356443</v>
+        <v>1570.114706356449</v>
       </c>
       <c r="W44" t="n">
-        <v>1439.525331947289</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X44" t="n">
-        <v>1288.238854547169</v>
+        <v>1288.238854547174</v>
       </c>
       <c r="Y44" t="n">
-        <v>1120.278803432318</v>
+        <v>1120.278803432322</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>613.2411341567486</v>
+        <v>516.8344555006338</v>
       </c>
       <c r="C45" t="n">
-        <v>438.7881048756215</v>
+        <v>342.3814262195068</v>
       </c>
       <c r="D45" t="n">
-        <v>438.7881048756215</v>
+        <v>193.4470165582555</v>
       </c>
       <c r="E45" t="n">
-        <v>279.550649870166</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="F45" t="n">
-        <v>133.016091897051</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="G45" t="n">
-        <v>133.016091897051</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="H45" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I45" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J45" t="n">
-        <v>48.26364783116924</v>
+        <v>48.26364783116938</v>
       </c>
       <c r="K45" t="n">
-        <v>150.4391445077545</v>
+        <v>150.4391445077546</v>
       </c>
       <c r="L45" t="n">
-        <v>334.1492501840364</v>
+        <v>334.1492501840365</v>
       </c>
       <c r="M45" t="n">
-        <v>567.8871466346347</v>
+        <v>567.8871466346349</v>
       </c>
       <c r="N45" t="n">
         <v>822.2200346112102</v>
@@ -7758,19 +7758,19 @@
         <v>1232.295672630685</v>
       </c>
       <c r="U45" t="n">
-        <v>1004.171254675305</v>
+        <v>1226.350535536264</v>
       </c>
       <c r="V45" t="n">
-        <v>991.1984273045219</v>
+        <v>1213.377708165481</v>
       </c>
       <c r="W45" t="n">
-        <v>821.0926343622814</v>
+        <v>1100.661591491189</v>
       </c>
       <c r="X45" t="n">
-        <v>613.2411341567486</v>
+        <v>892.8100912856557</v>
       </c>
       <c r="Y45" t="n">
-        <v>613.2411341567486</v>
+        <v>685.0497925207019</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="C46" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="D46" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="E46" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="F46" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="G46" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="H46" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="I46" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="J46" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="K46" t="n">
-        <v>50.43224858622305</v>
+        <v>50.43224858622319</v>
       </c>
       <c r="L46" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M46" t="n">
-        <v>157.7751876912676</v>
+        <v>157.7751876912677</v>
       </c>
       <c r="N46" t="n">
-        <v>220.962732150373</v>
+        <v>220.9627321503731</v>
       </c>
       <c r="O46" t="n">
-        <v>259.0135677411702</v>
+        <v>259.0135677411703</v>
       </c>
       <c r="P46" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="Q46" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="R46" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="S46" t="n">
-        <v>272.510659939592</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="T46" t="n">
-        <v>269.8431377267348</v>
+        <v>269.8431377267344</v>
       </c>
       <c r="U46" t="n">
-        <v>202.8802301689553</v>
+        <v>139.7629281107866</v>
       </c>
       <c r="V46" t="n">
-        <v>170.3750228240285</v>
+        <v>107.2577207658592</v>
       </c>
       <c r="W46" t="n">
-        <v>103.137133648028</v>
+        <v>40.01983158985797</v>
       </c>
       <c r="X46" t="n">
-        <v>97.32686361097068</v>
+        <v>34.20956155280005</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.20956155279991</v>
+        <v>34.20956155280005</v>
       </c>
     </row>
   </sheetData>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,13 +9881,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>337.7084856436089</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>360.8991011326927</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>12.35308465577877</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10039,19 +10039,19 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,28 +10112,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>27.41567430923158</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>409.5209479663848</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>144.2723509015146</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10270,19 +10270,19 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>91.43259007294023</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>143.6740559296652</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>338.6257625757445</v>
+        <v>64.81309574960528</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>440.2807101103599</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>400.6607724309507</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>40.33000427628926</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>114.1021800599865</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>237.48457607362</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>226.8947259232954</v>
+        <v>226.8947259232952</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>254.142054374874</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>279.0877300443236</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>284.7244505358283</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.65528330212911</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>83.09443458014348</v>
+        <v>72.30567283120835</v>
       </c>
       <c r="U11" t="n">
-        <v>123.3341395078954</v>
+        <v>123.3341395078952</v>
       </c>
       <c r="V11" t="n">
-        <v>199.9639427727473</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>221.4526530200255</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.9427849810812</v>
       </c>
       <c r="Y11" t="n">
-        <v>258.4496229586661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>254.9455259660928</v>
       </c>
       <c r="C14" t="n">
-        <v>237.4845760736201</v>
+        <v>237.4845760736198</v>
       </c>
       <c r="D14" t="n">
-        <v>226.8947259232955</v>
+        <v>52.3533008167465</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>254.142054374874</v>
       </c>
       <c r="F14" t="n">
-        <v>114.1021800599867</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>183.1136930274267</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.65528330212918</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>83.09443458014356</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>123.3341395078955</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>199.9639427727474</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>221.4526530200255</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.9427849810813</v>
       </c>
       <c r="Y14" t="n">
-        <v>258.4496229586661</v>
+        <v>258.4496229586658</v>
       </c>
     </row>
     <row r="15">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1401165.095327055</v>
+        <v>1401165.095327056</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1401165.095327055</v>
+        <v>1401165.095327056</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81927.63387170383</v>
+        <v>81927.63387170382</v>
       </c>
       <c r="C2" t="n">
         <v>81927.63387170385</v>
@@ -26323,37 +26323,37 @@
         <v>70304.02178316821</v>
       </c>
       <c r="F2" t="n">
-        <v>70304.02178316819</v>
+        <v>70304.02178316817</v>
       </c>
       <c r="G2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="H2" t="n">
         <v>82104.17698642839</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="J2" t="n">
         <v>82104.17698642833</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>82104.17698642828</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.1769864283</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.17698642833</v>
       </c>
-      <c r="J2" t="n">
-        <v>82104.17698642841</v>
-      </c>
-      <c r="K2" t="n">
-        <v>82104.17698642831</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.17698642831</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642837</v>
-      </c>
       <c r="O2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642833</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.1769864283</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>766266.5351224331</v>
+        <v>766266.5351224333</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92112.12268774914</v>
+        <v>92112.1226877489</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111884.0815365099</v>
+        <v>111884.0815365102</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92112.12268774908</v>
+        <v>92112.12268774884</v>
       </c>
       <c r="M3" t="n">
-        <v>83853.86775413112</v>
+        <v>83853.86775413102</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-10</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
+        <v>161674.3217732037</v>
+      </c>
+      <c r="F4" t="n">
         <v>161674.3217732036</v>
-      </c>
-      <c r="F4" t="n">
-        <v>161674.3217732035</v>
       </c>
       <c r="G4" t="n">
         <v>228781.8774821127</v>
@@ -26436,7 +26436,7 @@
         <v>228781.8774821127</v>
       </c>
       <c r="I4" t="n">
-        <v>228781.8774821127</v>
+        <v>228781.8774821128</v>
       </c>
       <c r="J4" t="n">
         <v>231159.1105944614</v>
@@ -26448,7 +26448,7 @@
         <v>231159.1105944614</v>
       </c>
       <c r="M4" t="n">
-        <v>229069.74047253</v>
+        <v>229069.7404725301</v>
       </c>
       <c r="N4" t="n">
         <v>229069.7404725301</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47553.01820892901</v>
+        <v>47553.01820892903</v>
       </c>
       <c r="F5" t="n">
-        <v>47553.01820892901</v>
+        <v>47553.01820892902</v>
       </c>
       <c r="G5" t="n">
         <v>57232.73576172449</v>
@@ -26491,25 +26491,25 @@
         <v>57232.73576172449</v>
       </c>
       <c r="J5" t="n">
-        <v>72488.96662948877</v>
+        <v>72488.96662948883</v>
       </c>
       <c r="K5" t="n">
-        <v>72488.96662948877</v>
+        <v>72488.96662948883</v>
       </c>
       <c r="L5" t="n">
-        <v>72488.96662948877</v>
+        <v>72488.96662948883</v>
       </c>
       <c r="M5" t="n">
-        <v>59620.18961222711</v>
+        <v>59620.18961222716</v>
       </c>
       <c r="N5" t="n">
-        <v>59620.18961222712</v>
+        <v>59620.18961222716</v>
       </c>
       <c r="O5" t="n">
-        <v>59620.18961222711</v>
+        <v>59620.18961222716</v>
       </c>
       <c r="P5" t="n">
-        <v>59620.18961222711</v>
+        <v>59620.18961222716</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-419315.9260600274</v>
+        <v>-419320.3396378955</v>
       </c>
       <c r="C6" t="n">
-        <v>-419315.9260600273</v>
+        <v>-419320.3396378955</v>
       </c>
       <c r="D6" t="n">
-        <v>-419315.9260600274</v>
+        <v>-419320.3396378955</v>
       </c>
       <c r="E6" t="n">
-        <v>-905189.8533213974</v>
+        <v>-905484.8572014793</v>
       </c>
       <c r="F6" t="n">
-        <v>-138923.3181989643</v>
+        <v>-139218.3220790459</v>
       </c>
       <c r="G6" t="n">
-        <v>-296022.558945158</v>
+        <v>-296022.5589451577</v>
       </c>
       <c r="H6" t="n">
-        <v>-203910.4362574089</v>
+        <v>-203910.4362574088</v>
       </c>
       <c r="I6" t="n">
         <v>-203910.4362574089</v>
       </c>
       <c r="J6" t="n">
-        <v>-333427.9817740317</v>
+        <v>-333427.9817740321</v>
       </c>
       <c r="K6" t="n">
-        <v>-221543.9002375219</v>
+        <v>-221543.900237522</v>
       </c>
       <c r="L6" t="n">
-        <v>-313656.022925271</v>
+        <v>-313656.0229252707</v>
       </c>
       <c r="M6" t="n">
         <v>-290439.6208524599</v>
@@ -26558,7 +26558,7 @@
         <v>-206585.753098329</v>
       </c>
       <c r="O6" t="n">
-        <v>-206585.7530983288</v>
+        <v>-206585.7530983289</v>
       </c>
       <c r="P6" t="n">
         <v>-206585.7530983289</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F2" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G2" t="n">
         <v>242.9284690570739</v>
@@ -26707,25 +26707,25 @@
         <v>242.9284690570739</v>
       </c>
       <c r="J2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="K2" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M2" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="N2" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="O2" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="P2" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>694.0053563773452</v>
+        <v>694.0053563773453</v>
       </c>
       <c r="F3" t="n">
         <v>694.0053563773452</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="F4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="G4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="H4" t="n">
         <v>356.5898935450529</v>
       </c>
       <c r="I4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="J4" t="n">
-        <v>784.2094129550521</v>
+        <v>784.2094129550535</v>
       </c>
       <c r="K4" t="n">
-        <v>784.2094129550521</v>
+        <v>784.2094129550535</v>
       </c>
       <c r="L4" t="n">
-        <v>784.2094129550521</v>
+        <v>784.2094129550535</v>
       </c>
       <c r="M4" t="n">
-        <v>427.6195194099991</v>
+        <v>427.6195194100007</v>
       </c>
       <c r="N4" t="n">
-        <v>427.6195194099991</v>
+        <v>427.6195194100007</v>
       </c>
       <c r="O4" t="n">
-        <v>427.6195194099989</v>
+        <v>427.6195194100007</v>
       </c>
       <c r="P4" t="n">
-        <v>427.6195194099989</v>
+        <v>427.6195194100007</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M2" t="n">
-        <v>104.8173346926639</v>
+        <v>104.8173346926638</v>
       </c>
       <c r="N2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>694.0053563773452</v>
+        <v>694.0053563773453</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.6195194099993</v>
+        <v>427.6195194100007</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450528</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I11" t="n">
         <v>102.9155217242246</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.33000427628926</v>
+        <v>40.33000427628923</v>
       </c>
       <c r="S11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H12" t="n">
-        <v>18.97980129324864</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>48.12670030601736</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>52.99705278587243</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S12" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>18.979801293246</v>
       </c>
       <c r="X12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I13" t="n">
-        <v>127.7883156973876</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J13" t="n">
-        <v>38.51542706977952</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="K13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="L13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="M13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="N13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="O13" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.1765479484816</v>
+        <v>108.6653849506193</v>
       </c>
       <c r="R13" t="n">
         <v>121.0220718256556</v>
       </c>
       <c r="S13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I14" t="n">
         <v>102.9155217242246</v>
@@ -28375,25 +28375,25 @@
         <v>40.33000427628926</v>
       </c>
       <c r="S14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="15">
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E15" t="n">
-        <v>127.7883156973875</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>48.94965194982829</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.7883156973875</v>
+        <v>48.94965194982582</v>
       </c>
       <c r="H15" t="n">
         <v>97.81846504080859</v>
@@ -28454,25 +28454,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y15" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I16" t="n">
-        <v>127.7883156973875</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="K16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="L16" t="n">
-        <v>91.92573114653075</v>
+        <v>108.6653849506204</v>
       </c>
       <c r="M16" t="n">
-        <v>127.7883156973875</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="P16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="R16" t="n">
-        <v>127.7883156973875</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.7883156973875</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="17">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.15095606381223</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28649,19 +28649,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H18" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.12670030601736</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T18" t="n">
         <v>194.1478331994369</v>
@@ -28700,16 +28700,16 @@
         <v>225.8431737758271</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>242.9284690570739</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>23.51798616912765</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28770,7 +28770,7 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S19" t="n">
-        <v>202.20662642754</v>
+        <v>62.41454004836538</v>
       </c>
       <c r="T19" t="n">
         <v>222.598335043079</v>
@@ -28785,7 +28785,7 @@
         <v>242.9284690570739</v>
       </c>
       <c r="X19" t="n">
-        <v>85.91756900986243</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>102.2223587497146</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -28925,16 +28925,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T21" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8431737758271</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28943,10 +28943,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>15.09430049755406</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28971,7 +28971,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>26.94740791040687</v>
+        <v>166.7394942895816</v>
       </c>
       <c r="H22" t="n">
         <v>151.1003325314225</v>
@@ -29010,7 +29010,7 @@
         <v>202.20662642754</v>
       </c>
       <c r="T22" t="n">
-        <v>222.598335043079</v>
+        <v>82.80624866390443</v>
       </c>
       <c r="U22" t="n">
         <v>242.9284690570739</v>
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H24" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>48.12670030601736</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29171,16 +29171,16 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U24" t="n">
-        <v>169.2524352317783</v>
+        <v>69.15787253455272</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>242.9284690570739</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29244,7 +29244,7 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S25" t="n">
-        <v>202.20662642754</v>
+        <v>62.41454004836521</v>
       </c>
       <c r="T25" t="n">
         <v>222.598335043079</v>
@@ -29259,7 +29259,7 @@
         <v>242.9284690570739</v>
       </c>
       <c r="X25" t="n">
-        <v>85.91756900986243</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I26" t="n">
-        <v>102.9155217242246</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="N26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="P26" t="n">
-        <v>96.59893867183654</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="R26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y26" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C27" t="n">
-        <v>115.1401533596864</v>
+        <v>47.64295962945479</v>
       </c>
       <c r="D27" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G27" t="n">
-        <v>47.64295962945174</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H27" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I27" t="n">
-        <v>48.12670030601736</v>
+        <v>38.00095315743243</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>52.99705278587243</v>
+        <v>7.475382974551607</v>
       </c>
       <c r="S27" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T27" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V27" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W27" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X27" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="28">
@@ -29430,34 +29430,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J28" t="n">
-        <v>115.1401533596864</v>
+        <v>26.16234241400075</v>
       </c>
       <c r="K28" t="n">
-        <v>109.6958333606575</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29466,40 +29466,40 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>43.34282203958583</v>
       </c>
       <c r="Q28" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="K29" t="n">
-        <v>115.1401533596865</v>
+        <v>59.01046036456592</v>
       </c>
       <c r="L29" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="N29" t="n">
-        <v>82.73280351907438</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="P29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q29" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="30">
@@ -29588,22 +29588,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C30" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D30" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E30" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F30" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G30" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H30" t="n">
         <v>97.81846504080859</v>
@@ -29639,25 +29639,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S30" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T30" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U30" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>47.64295962945087</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>115.1401533596865</v>
+        <v>47.64295962945417</v>
       </c>
       <c r="Y30" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="R31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J32" t="n">
-        <v>20.08731463093865</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M32" t="n">
-        <v>115.1401533596864</v>
+        <v>84.38039121571099</v>
       </c>
       <c r="N32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="P32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q32" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y32" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C33" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D33" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E33" t="n">
-        <v>47.64295962945187</v>
+        <v>47.64295962945502</v>
       </c>
       <c r="F33" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H33" t="n">
         <v>97.81846504080859</v>
@@ -29876,25 +29876,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S33" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U33" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V33" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W33" t="n">
-        <v>115.1401533596864</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y33" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="K34" t="n">
-        <v>115.1401533596864</v>
+        <v>30.99654937004716</v>
       </c>
       <c r="L34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="N34" t="n">
-        <v>92.63405145264738</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="P34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="R34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.1401533596864</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="C35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="D35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="E35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="F35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="G35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="H35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="I35" t="n">
-        <v>102.9155217242246</v>
+        <v>120.9480307069727</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30022,37 +30022,37 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>187.63895700526</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>19.09577352836055</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.33000427628926</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="S35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="T35" t="n">
-        <v>210.882750277531</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
     </row>
     <row r="36">
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -30074,10 +30074,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>140.6073433163056</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H36" t="n">
         <v>97.81846504080859</v>
@@ -30113,16 +30113,16 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T36" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U36" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>54.97336968568061</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30150,7 +30150,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>83.9478336089808</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -30195,22 +30195,22 @@
         <v>202.20662642754</v>
       </c>
       <c r="T37" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U37" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V37" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W37" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X37" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>156.0985243145089</v>
       </c>
     </row>
     <row r="38">
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="C38" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="D38" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="E38" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="F38" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="G38" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="H38" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="I38" t="n">
-        <v>102.9155217242246</v>
+        <v>120.9480307069722</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>219.9574880523504</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.33000427628926</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="S38" t="n">
-        <v>197.6599927588009</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="U38" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V38" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W38" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X38" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
     </row>
     <row r="39">
@@ -30302,19 +30302,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>117.4719657797599</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H39" t="n">
         <v>97.81846504080859</v>
@@ -30350,25 +30350,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W39" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>65.21775199440435</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30432,19 +30432,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T40" t="n">
-        <v>157.4713590147614</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="U40" t="n">
-        <v>219.9574880523504</v>
+        <v>157.4713590147637</v>
       </c>
       <c r="V40" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="W40" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="X40" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523499</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="C41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="D41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="E41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="F41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="G41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="H41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="I41" t="n">
-        <v>102.9155217242246</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>159.2110322455821</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>162.3675916171601</v>
+        <v>120.9480307069725</v>
       </c>
       <c r="S41" t="n">
-        <v>145.4435989995167</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="T41" t="n">
-        <v>210.882750277531</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y41" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
     </row>
     <row r="42">
@@ -30539,25 +30539,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H42" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>48.12670030601736</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S42" t="n">
         <v>143.9556929504599</v>
@@ -30593,19 +30593,19 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U42" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V42" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>65.21775199440435</v>
       </c>
       <c r="Y42" t="n">
-        <v>56.92696711726938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30666,22 +30666,22 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S43" t="n">
-        <v>202.20662642754</v>
+        <v>139.720497389954</v>
       </c>
       <c r="T43" t="n">
-        <v>157.4713590147614</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U43" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V43" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W43" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X43" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,37 +30694,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="C44" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="D44" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="E44" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="F44" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="G44" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="H44" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="I44" t="n">
-        <v>102.9155217242246</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="J44" t="n">
-        <v>61.29113153410269</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>219.9574880523504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.33000427628926</v>
+        <v>120.9480307069725</v>
       </c>
       <c r="S44" t="n">
-        <v>145.4435989995167</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="T44" t="n">
-        <v>210.882750277531</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U44" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V44" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W44" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X44" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
     </row>
     <row r="45">
@@ -30773,25 +30773,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I45" t="n">
         <v>48.12670030601736</v>
@@ -30830,19 +30830,19 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V45" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W45" t="n">
-        <v>83.29024814810145</v>
+        <v>140.1060276533704</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30906,22 +30906,22 @@
         <v>202.20662642754</v>
       </c>
       <c r="T46" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U46" t="n">
-        <v>219.9574880523504</v>
+        <v>157.4713590147639</v>
       </c>
       <c r="V46" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W46" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X46" t="n">
-        <v>219.9574880523504</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y46" t="n">
-        <v>156.0985243145057</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.789971281918973</v>
+        <v>2.789971281918974</v>
       </c>
       <c r="H11" t="n">
-        <v>28.57279339095269</v>
+        <v>28.5727933909527</v>
       </c>
       <c r="I11" t="n">
         <v>107.5603678461813</v>
@@ -31762,37 +31762,37 @@
         <v>236.7953250887707</v>
       </c>
       <c r="K11" t="n">
-        <v>354.8948094524009</v>
+        <v>354.894809452401</v>
       </c>
       <c r="L11" t="n">
-        <v>440.2783930714288</v>
+        <v>440.2783930714289</v>
       </c>
       <c r="M11" t="n">
-        <v>489.8945448562553</v>
+        <v>489.8945448562554</v>
       </c>
       <c r="N11" t="n">
-        <v>497.8215507610076</v>
+        <v>497.8215507610077</v>
       </c>
       <c r="O11" t="n">
         <v>470.0787738264258</v>
       </c>
       <c r="P11" t="n">
-        <v>401.2013578040511</v>
+        <v>401.2013578040512</v>
       </c>
       <c r="Q11" t="n">
-        <v>301.2855112703277</v>
+        <v>301.2855112703278</v>
       </c>
       <c r="R11" t="n">
         <v>175.2555335378429</v>
       </c>
       <c r="S11" t="n">
-        <v>63.57647058672867</v>
+        <v>63.57647058672868</v>
       </c>
       <c r="T11" t="n">
         <v>12.21309928660031</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2231977025535178</v>
+        <v>0.2231977025535179</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.49276623824561</v>
+        <v>1.492766238245611</v>
       </c>
       <c r="H12" t="n">
         <v>14.41697919568787</v>
       </c>
       <c r="I12" t="n">
-        <v>51.39567969398264</v>
+        <v>51.39567969398265</v>
       </c>
       <c r="J12" t="n">
         <v>141.0336734124943</v>
@@ -31853,25 +31853,25 @@
         <v>388.2436191303792</v>
       </c>
       <c r="O12" t="n">
-        <v>355.1670619566211</v>
+        <v>355.1670619566212</v>
       </c>
       <c r="P12" t="n">
         <v>285.0528793014798</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.5503008679835</v>
+        <v>190.5503008679836</v>
       </c>
       <c r="R12" t="n">
-        <v>92.68245117809153</v>
+        <v>92.68245117809154</v>
       </c>
       <c r="S12" t="n">
         <v>27.72747815337788</v>
       </c>
       <c r="T12" t="n">
-        <v>6.016895495384717</v>
+        <v>6.016895495384718</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09820830514773757</v>
+        <v>0.09820830514773758</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,16 +31911,16 @@
         <v>1.25148506887718</v>
       </c>
       <c r="H13" t="n">
-        <v>11.12683997601711</v>
+        <v>11.12683997601712</v>
       </c>
       <c r="I13" t="n">
-        <v>37.63556916223374</v>
+        <v>37.63556916223375</v>
       </c>
       <c r="J13" t="n">
-        <v>88.47999436961659</v>
+        <v>88.47999436961661</v>
       </c>
       <c r="K13" t="n">
-        <v>145.3998107295486</v>
+        <v>145.3998107295487</v>
       </c>
       <c r="L13" t="n">
         <v>186.0616983310673</v>
@@ -31941,13 +31941,13 @@
         <v>104.7948088129791</v>
       </c>
       <c r="R13" t="n">
-        <v>56.2713195515139</v>
+        <v>56.27131955151391</v>
       </c>
       <c r="S13" t="n">
         <v>21.8099716094323</v>
       </c>
       <c r="T13" t="n">
-        <v>5.347254385202493</v>
+        <v>5.347254385202494</v>
       </c>
       <c r="U13" t="n">
         <v>0.06826282193875534</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.7494205620844</v>
+        <v>55.74942056208442</v>
       </c>
       <c r="K11" t="n">
         <v>134.8049584074204</v>
       </c>
       <c r="L11" t="n">
-        <v>204.5119781014415</v>
+        <v>204.5119781014416</v>
       </c>
       <c r="M11" t="n">
-        <v>259.5483116289826</v>
+        <v>259.5483116289827</v>
       </c>
       <c r="N11" t="n">
-        <v>268.4084871644167</v>
+        <v>268.4084871644168</v>
       </c>
       <c r="O11" t="n">
         <v>239.9805624047391</v>
@@ -35428,7 +35428,7 @@
         <v>169.9683620487816</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.97982139587825</v>
+        <v>78.9798213958783</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.1960467458276</v>
+        <v>14.19604674582763</v>
       </c>
       <c r="K12" t="n">
         <v>103.2075724005912</v>
       </c>
       <c r="L12" t="n">
-        <v>185.5657633093756</v>
+        <v>185.5657633093757</v>
       </c>
       <c r="M12" t="n">
-        <v>236.0988853036347</v>
+        <v>236.0988853036348</v>
       </c>
       <c r="N12" t="n">
-        <v>256.9019070470458</v>
+        <v>256.9019070470459</v>
       </c>
       <c r="O12" t="n">
         <v>212.5708175121767</v>
       </c>
       <c r="P12" t="n">
-        <v>151.0784718871495</v>
+        <v>151.0784718871496</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.56852678196202</v>
+        <v>50.56852678196205</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35562,31 +35562,31 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.973409932363019</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>89.27288862760828</v>
       </c>
       <c r="K13" t="n">
-        <v>144.1748682564008</v>
+        <v>144.1748682564011</v>
       </c>
       <c r="L13" t="n">
-        <v>178.9653377472166</v>
+        <v>178.9653377472168</v>
       </c>
       <c r="M13" t="n">
-        <v>185.0385048647753</v>
+        <v>185.0385048647755</v>
       </c>
       <c r="N13" t="n">
-        <v>191.6141181813324</v>
+        <v>191.6141181813326</v>
       </c>
       <c r="O13" t="n">
-        <v>166.2235031628393</v>
+        <v>38.43518746545175</v>
       </c>
       <c r="P13" t="n">
-        <v>141.4217421604399</v>
+        <v>141.4217421604401</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.46635513201487</v>
+        <v>61.95519213415261</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35799,34 +35799,34 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.973409932362948</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>89.27288862760797</v>
+        <v>89.27288862760822</v>
       </c>
       <c r="K16" t="n">
-        <v>144.1748682564008</v>
+        <v>144.174868256401</v>
       </c>
       <c r="L16" t="n">
-        <v>143.1027531963597</v>
+        <v>159.8424070004494</v>
       </c>
       <c r="M16" t="n">
-        <v>185.0385048647752</v>
+        <v>57.25018916738773</v>
       </c>
       <c r="N16" t="n">
-        <v>191.6141181813323</v>
+        <v>191.6141181813326</v>
       </c>
       <c r="O16" t="n">
-        <v>38.43518746545172</v>
+        <v>166.2235031628394</v>
       </c>
       <c r="P16" t="n">
-        <v>141.4217421604398</v>
+        <v>141.42174216044</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.07812288092076</v>
+        <v>81.07812288092101</v>
       </c>
       <c r="R16" t="n">
-        <v>6.766243871731902</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>268.4084871644167</v>
       </c>
       <c r="O23" t="n">
-        <v>239.9805624047393</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P23" t="n">
         <v>169.9683620487816</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>12.22463163546149</v>
       </c>
       <c r="J26" t="n">
-        <v>339.9861890938446</v>
+        <v>170.8895739217705</v>
       </c>
       <c r="K26" t="n">
-        <v>458.9503709785851</v>
+        <v>574.0905243382712</v>
       </c>
       <c r="L26" t="n">
-        <v>319.6521314611279</v>
+        <v>319.6521314611276</v>
       </c>
       <c r="M26" t="n">
-        <v>712.3969506322778</v>
+        <v>374.6884649886686</v>
       </c>
       <c r="N26" t="n">
-        <v>383.5486405241031</v>
+        <v>383.5486405241028</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1207157644255</v>
+        <v>716.0198168971178</v>
       </c>
       <c r="P26" t="n">
-        <v>266.5673007206181</v>
+        <v>285.1085154084676</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.1199747555647</v>
+        <v>194.1199747555643</v>
       </c>
       <c r="R26" t="n">
-        <v>74.81014908339715</v>
+        <v>74.81014908339682</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>110.2609676126302</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>232.8261522643233</v>
+        <v>123.1303189036658</v>
       </c>
       <c r="L28" t="n">
         <v>213.6517235913834</v>
       </c>
       <c r="M28" t="n">
-        <v>57.25018916738773</v>
+        <v>235.7598500768334</v>
       </c>
       <c r="N28" t="n">
-        <v>350.783672688093</v>
+        <v>235.6435193284066</v>
       </c>
       <c r="O28" t="n">
-        <v>38.43518746545172</v>
+        <v>201.4768538313342</v>
       </c>
       <c r="P28" t="n">
-        <v>148.6399897770934</v>
+        <v>191.9828118166792</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.42996054321968</v>
+        <v>18.63276556128473</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>12.2246316354619</v>
+        <v>12.22463163546153</v>
       </c>
       <c r="J29" t="n">
-        <v>55.7494205620844</v>
+        <v>170.8895739217705</v>
       </c>
       <c r="K29" t="n">
-        <v>277.3607860763385</v>
+        <v>193.8154187719863</v>
       </c>
       <c r="L29" t="n">
-        <v>737.3133460115785</v>
+        <v>622.1731926518919</v>
       </c>
       <c r="M29" t="n">
-        <v>374.688464988669</v>
+        <v>784.2094129550535</v>
       </c>
       <c r="N29" t="n">
-        <v>351.1412906834911</v>
+        <v>527.8209914256174</v>
       </c>
       <c r="O29" t="n">
-        <v>355.1207157644255</v>
+        <v>355.1207157644252</v>
       </c>
       <c r="P29" t="n">
-        <v>606.9072235799507</v>
+        <v>285.1085154084677</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.1199747555647</v>
+        <v>78.97982139587825</v>
       </c>
       <c r="R29" t="n">
-        <v>140.5265689563797</v>
+        <v>74.81014908339687</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>76.62472628990697</v>
+        <v>76.6247262899066</v>
       </c>
       <c r="K31" t="n">
-        <v>107.8191426319535</v>
+        <v>131.5267059186994</v>
       </c>
       <c r="L31" t="n">
-        <v>328.7918769510699</v>
+        <v>166.3171754095151</v>
       </c>
       <c r="M31" t="n">
-        <v>350.9000034365199</v>
+        <v>172.3903425270739</v>
       </c>
       <c r="N31" t="n">
-        <v>235.6435193284066</v>
+        <v>178.9659558436309</v>
       </c>
       <c r="O31" t="n">
-        <v>38.43518746545172</v>
+        <v>297.2493967548031</v>
       </c>
       <c r="P31" t="n">
-        <v>13.6334264630523</v>
+        <v>128.7735798227384</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.42996054321976</v>
+        <v>68.42996054321939</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>12.22463163546182</v>
+        <v>12.22463163546146</v>
       </c>
       <c r="J32" t="n">
-        <v>244.9333503650968</v>
+        <v>170.8895739217704</v>
       </c>
       <c r="K32" t="n">
-        <v>134.8049584074204</v>
+        <v>249.9451117671064</v>
       </c>
       <c r="L32" t="n">
-        <v>658.2778940368725</v>
+        <v>384.4652272107328</v>
       </c>
       <c r="M32" t="n">
-        <v>374.688464988669</v>
+        <v>784.2094129550535</v>
       </c>
       <c r="N32" t="n">
-        <v>383.5486405241031</v>
+        <v>784.2094129550535</v>
       </c>
       <c r="O32" t="n">
-        <v>355.1207157644255</v>
+        <v>355.1207157644251</v>
       </c>
       <c r="P32" t="n">
-        <v>606.9072235799506</v>
+        <v>285.1085154084676</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.1199747555647</v>
+        <v>78.97982139587825</v>
       </c>
       <c r="R32" t="n">
-        <v>140.5265689563796</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>110.2609676126302</v>
+        <v>76.62472628990653</v>
       </c>
       <c r="K34" t="n">
-        <v>131.5267059186997</v>
+        <v>47.38310192906042</v>
       </c>
       <c r="L34" t="n">
-        <v>328.7918769510699</v>
+        <v>328.7918769510695</v>
       </c>
       <c r="M34" t="n">
-        <v>57.25018916738773</v>
+        <v>172.3903425270738</v>
       </c>
       <c r="N34" t="n">
-        <v>156.4598539365922</v>
+        <v>178.9659558436309</v>
       </c>
       <c r="O34" t="n">
-        <v>153.5753408251381</v>
+        <v>153.5753408251378</v>
       </c>
       <c r="P34" t="n">
-        <v>263.7801431367798</v>
+        <v>128.7735798227384</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.63276556128473</v>
+        <v>133.7729189209708</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>18.03250898274809</v>
       </c>
       <c r="J35" t="n">
         <v>55.7494205620844</v>
@@ -37318,22 +37318,22 @@
         <v>268.4084871644167</v>
       </c>
       <c r="O35" t="n">
-        <v>427.6195194099991</v>
+        <v>239.9805624047391</v>
       </c>
       <c r="P35" t="n">
-        <v>189.0641355771421</v>
+        <v>169.9683620487816</v>
       </c>
       <c r="Q35" t="n">
         <v>78.97982139587825</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>179.6274837760606</v>
       </c>
       <c r="S35" t="n">
-        <v>74.51388905283363</v>
+        <v>74.51388905283315</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>9.074737774818773</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>18.03250898274763</v>
       </c>
       <c r="J38" t="n">
         <v>55.7494205620844</v>
       </c>
       <c r="K38" t="n">
-        <v>354.7624464597708</v>
+        <v>134.8049584074204</v>
       </c>
       <c r="L38" t="n">
         <v>204.5119781014415</v>
@@ -37564,13 +37564,13 @@
         <v>78.97982139587825</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>179.6274837760606</v>
       </c>
       <c r="S38" t="n">
-        <v>52.21639375928419</v>
+        <v>74.51388905283321</v>
       </c>
       <c r="T38" t="n">
-        <v>9.074737774819399</v>
+        <v>9.07473777481883</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>117.0419663281252</v>
       </c>
       <c r="J41" t="n">
         <v>55.7494205620844</v>
@@ -37789,7 +37789,7 @@
         <v>259.5483116289826</v>
       </c>
       <c r="N41" t="n">
-        <v>427.6195194099989</v>
+        <v>268.4084871644167</v>
       </c>
       <c r="O41" t="n">
         <v>239.9805624047391</v>
@@ -37801,13 +37801,13 @@
         <v>78.97982139587825</v>
       </c>
       <c r="R41" t="n">
-        <v>122.0375873408708</v>
+        <v>80.61802643068326</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>74.51388905283315</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>9.074737774818773</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -38011,16 +38011,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>117.0419663281252</v>
       </c>
       <c r="J44" t="n">
-        <v>117.0405520961871</v>
+        <v>55.7494205620844</v>
       </c>
       <c r="K44" t="n">
         <v>134.8049584074204</v>
       </c>
       <c r="L44" t="n">
-        <v>424.4694661537919</v>
+        <v>204.5119781014415</v>
       </c>
       <c r="M44" t="n">
         <v>259.5483116289826</v>
@@ -38038,13 +38038,13 @@
         <v>78.97982139587825</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>80.61802643068326</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>74.51388905283315</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>9.074737774818773</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
